--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>534664.0923398834</v>
+        <v>528481.6955389897</v>
       </c>
     </row>
     <row r="7">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62.39203830246782</v>
       </c>
       <c r="E11" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.48108895397719</v>
+        <v>212.1170609539285</v>
       </c>
       <c r="U11" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>311.6588320349639</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>32.96333784426076</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>75.43460392293989</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15.31207920945709</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.003406809854135</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>80.51050339515963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.3563631822438</v>
@@ -1587,13 +1587,13 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>274.5090992563964</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="D14" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="F14" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.48108895397719</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>49.22084511838109</v>
+        <v>4.2175057580344</v>
       </c>
       <c r="G15" t="n">
         <v>117.7410248871764</v>
@@ -1706,7 +1706,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I15" t="n">
-        <v>10.39412853517615</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>207.8889464367184</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.79363702894804</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>80.51050339515963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.4506040058318</v>
@@ -1821,16 +1821,16 @@
         <v>229.3563631822438</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>169.3153032288479</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.009146569342824</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.1170609539285</v>
       </c>
       <c r="U17" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="W17" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.48108895397736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>39.6529590040312</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>96.99377947980291</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>130.5018108505536</v>
       </c>
       <c r="H19" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>80.51050339515963</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.3563631822438</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5332698218218</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>104.6053946192702</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.5090992563964</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V20" t="n">
-        <v>311.6588320349641</v>
+        <v>215.9150884242702</v>
       </c>
       <c r="W20" t="n">
         <v>311.6588320349641</v>
       </c>
       <c r="X20" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>44.099427953748</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>76.61503396604265</v>
       </c>
       <c r="I21" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>170.7068636923703</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>19.54774586910343</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.51050339515963</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.3563631822438</v>
+        <v>151.3961567691017</v>
       </c>
       <c r="U22" t="n">
         <v>282.5332698218218</v>
@@ -2301,10 +2301,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>169.3153032288475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>274.5090992563963</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>157.2842666917253</v>
       </c>
       <c r="W23" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>97.57782159714019</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>33.60544963056228</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>117.7410248871764</v>
       </c>
       <c r="H24" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>10.39412853517615</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.3552782140335</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2493,10 +2493,10 @@
         <v>165.6340563521181</v>
       </c>
       <c r="H25" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>53.35595575297305</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>311.6588320349641</v>
       </c>
       <c r="G26" t="n">
-        <v>21.48108895397726</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>21.48108895397719</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>7.429900047597618</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>75.70891217790475</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.39412853517615</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6340563521181</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5889204806361</v>
+        <v>58.64501410781083</v>
       </c>
       <c r="I28" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T28" t="n">
-        <v>227.2075251313749</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5090992563963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>21.48108895397719</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>311.6588320349641</v>
@@ -2857,7 +2857,7 @@
         <v>311.6588320349641</v>
       </c>
       <c r="X29" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>38.25252117859254</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>20.42840812715378</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>207.8889464367184</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.51050339515963</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T31" t="n">
         <v>229.3563631822438</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>249.825806624007</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.1081254041525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.798027470341802</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U32" t="n">
-        <v>253.028010302419</v>
+        <v>62.3920383024677</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>158.0668627598368</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>114.739714227782</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.8332823809025</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>229.3563631822438</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>204.5730634086797</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>64.63996830188778</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>56.38289173312509</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.1170609539285</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V35" t="n">
-        <v>274.5090992563962</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="W35" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7410248871764</v>
+        <v>22.28408855804004</v>
       </c>
       <c r="H36" t="n">
         <v>76.61503396604265</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>161.3017796419968</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U36" t="n">
         <v>207.8889464367184</v>
@@ -3410,7 +3410,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44.60828979160641</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U37" t="n">
         <v>282.5332698218218</v>
@@ -3486,10 +3486,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>202.5368916349921</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="G38" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>299.4390357366541</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U38" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.79802747034196</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>74.61183460077777</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>80.52916044834255</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>38.25252117859304</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>36.56228561082045</v>
       </c>
       <c r="S40" t="n">
-        <v>153.7793125817051</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T40" t="n">
         <v>229.3563631822438</v>
@@ -3720,10 +3720,10 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>311.6588320349642</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>117.2248325646711</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.1170609539285</v>
+      </c>
+      <c r="U41" t="n">
+        <v>253.028010302419</v>
+      </c>
+      <c r="V41" t="n">
         <v>311.6588320349642</v>
       </c>
-      <c r="G41" t="n">
-        <v>311.6588320349642</v>
-      </c>
-      <c r="H41" t="n">
-        <v>218.1262075232713</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56.38289173312509</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>3.798027470342016</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>90.62110232654582</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>10.39412853517615</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>77.63650370856921</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3903,10 +3903,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.51050339515963</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>152.1122955529574</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>1.580273064171035</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>311.6588320349642</v>
+        <v>3.798027470341693</v>
       </c>
       <c r="G44" t="n">
-        <v>259.0739677721811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>56.38289173312509</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.658832034964</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>311.658832034964</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>26.99662268967174</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.39412853517616</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T45" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>30.91550113977878</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>138.9353172758856</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>151.3961567691021</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.7396076082152</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="C11" t="n">
-        <v>339.7396076082152</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="D11" t="n">
-        <v>339.7396076082152</v>
+        <v>654.546508653634</v>
       </c>
       <c r="E11" t="n">
-        <v>24.93270656279711</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="F11" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G11" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H11" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I11" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J11" t="n">
-        <v>84.0335063081923</v>
+        <v>84.03350630819227</v>
       </c>
       <c r="K11" t="n">
-        <v>205.5903216845599</v>
+        <v>205.59032168456</v>
       </c>
       <c r="L11" t="n">
-        <v>380.3784451554874</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M11" t="n">
-        <v>595.4490449214278</v>
+        <v>595.4490449214286</v>
       </c>
       <c r="N11" t="n">
-        <v>816.998687287212</v>
+        <v>816.998687287213</v>
       </c>
       <c r="O11" t="n">
-        <v>1017.533812354169</v>
+        <v>1017.53381235417</v>
       </c>
       <c r="P11" t="n">
-        <v>1166.260251496406</v>
+        <v>1166.260251496407</v>
       </c>
       <c r="Q11" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R11" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S11" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T11" t="n">
-        <v>1224.937258489374</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U11" t="n">
-        <v>969.3534096990513</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="V11" t="n">
-        <v>654.5465086536333</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="W11" t="n">
-        <v>339.7396076082152</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="X11" t="n">
-        <v>339.7396076082152</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.7396076082152</v>
+        <v>717.5687695652176</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.93270656279711</v>
+        <v>475.4186961231255</v>
       </c>
       <c r="C12" t="n">
-        <v>24.93270656279711</v>
+        <v>324.7644656832177</v>
       </c>
       <c r="D12" t="n">
-        <v>24.93270656279711</v>
+        <v>194.6754983046981</v>
       </c>
       <c r="E12" t="n">
-        <v>24.93270656279711</v>
+        <v>58.22900741558578</v>
       </c>
       <c r="F12" t="n">
-        <v>24.93270656279711</v>
+        <v>58.22900741558578</v>
       </c>
       <c r="G12" t="n">
-        <v>24.93270656279711</v>
+        <v>58.22900741558578</v>
       </c>
       <c r="H12" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I12" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J12" t="n">
-        <v>219.6233314922245</v>
+        <v>47.90113748809812</v>
       </c>
       <c r="K12" t="n">
-        <v>309.6806743726175</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L12" t="n">
-        <v>460.8835373925514</v>
+        <v>446.5007240831056</v>
       </c>
       <c r="M12" t="n">
-        <v>649.9121110704796</v>
+        <v>635.5292977610338</v>
       </c>
       <c r="N12" t="n">
-        <v>853.3093278168225</v>
+        <v>838.9265145073769</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.935177388858</v>
+        <v>1010.552364079413</v>
       </c>
       <c r="P12" t="n">
-        <v>1150.113559414461</v>
+        <v>1135.730746105015</v>
       </c>
       <c r="Q12" t="n">
-        <v>1201.344515078393</v>
+        <v>1201.344515078394</v>
       </c>
       <c r="R12" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S12" t="n">
-        <v>1170.438758520724</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T12" t="n">
-        <v>998.0075830738856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U12" t="n">
-        <v>998.0075830738856</v>
+        <v>1036.646493355293</v>
       </c>
       <c r="V12" t="n">
-        <v>775.4675814449527</v>
+        <v>1036.646493355293</v>
       </c>
       <c r="W12" t="n">
-        <v>545.3503355782395</v>
+        <v>806.5292474885796</v>
       </c>
       <c r="X12" t="n">
-        <v>356.0432579282513</v>
+        <v>806.5292474885796</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.7290410037585</v>
+        <v>627.2150305640869</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.9582653798139</v>
+        <v>26.95634980507404</v>
       </c>
       <c r="C13" t="n">
-        <v>195.9582653798139</v>
+        <v>26.95634980507404</v>
       </c>
       <c r="D13" t="n">
-        <v>195.9582653798139</v>
+        <v>26.95634980507404</v>
       </c>
       <c r="E13" t="n">
-        <v>40.3994532390164</v>
+        <v>26.95634980507404</v>
       </c>
       <c r="F13" t="n">
-        <v>24.93270656279711</v>
+        <v>26.95634980507404</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H13" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I13" t="n">
-        <v>24.93270656279711</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J13" t="n">
-        <v>60.77439242645065</v>
+        <v>60.77439242645069</v>
       </c>
       <c r="K13" t="n">
-        <v>179.7277543517017</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L13" t="n">
-        <v>230.9100125548088</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M13" t="n">
-        <v>539.4522562694231</v>
+        <v>861.0861697396232</v>
       </c>
       <c r="N13" t="n">
-        <v>847.9944999840372</v>
+        <v>929.1309449788944</v>
       </c>
       <c r="O13" t="n">
-        <v>1141.879501269418</v>
+        <v>1223.015946264275</v>
       </c>
       <c r="P13" t="n">
-        <v>1165.498883145</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q13" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R13" t="n">
-        <v>1165.311587336664</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S13" t="n">
-        <v>978.9978459166317</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T13" t="n">
-        <v>747.3247517931532</v>
+        <v>1014.962234016378</v>
       </c>
       <c r="U13" t="n">
-        <v>461.9376105589897</v>
+        <v>729.5750927822146</v>
       </c>
       <c r="V13" t="n">
-        <v>195.9582653798139</v>
+        <v>729.5750927822146</v>
       </c>
       <c r="W13" t="n">
-        <v>195.9582653798139</v>
+        <v>446.2446907133922</v>
       </c>
       <c r="X13" t="n">
-        <v>195.9582653798139</v>
+        <v>212.1643684963753</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9582653798139</v>
+        <v>212.1643684963753</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1246.635328139857</v>
+        <v>969.353409699052</v>
       </c>
       <c r="C14" t="n">
-        <v>969.3534096990525</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="D14" t="n">
-        <v>654.546508653634</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="E14" t="n">
-        <v>339.7396076082156</v>
+        <v>339.7396076082154</v>
       </c>
       <c r="F14" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G14" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H14" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I14" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J14" t="n">
-        <v>84.03350630819227</v>
+        <v>84.03350630819216</v>
       </c>
       <c r="K14" t="n">
         <v>205.5903216845599</v>
@@ -5287,10 +5287,10 @@
         <v>380.378445155488</v>
       </c>
       <c r="M14" t="n">
-        <v>595.4490449214284</v>
+        <v>595.4490449214285</v>
       </c>
       <c r="N14" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872125</v>
       </c>
       <c r="O14" t="n">
         <v>1017.53381235417</v>
@@ -5299,31 +5299,31 @@
         <v>1166.260251496407</v>
       </c>
       <c r="Q14" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R14" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S14" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T14" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U14" t="n">
-        <v>1246.635328139857</v>
+        <v>991.051479349534</v>
       </c>
       <c r="V14" t="n">
-        <v>1246.635328139857</v>
+        <v>991.051479349534</v>
       </c>
       <c r="W14" t="n">
-        <v>1246.635328139857</v>
+        <v>991.051479349534</v>
       </c>
       <c r="X14" t="n">
-        <v>1246.635328139857</v>
+        <v>969.353409699052</v>
       </c>
       <c r="Y14" t="n">
-        <v>1246.635328139857</v>
+        <v>969.353409699052</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>411.558070412808</v>
+        <v>523.1119058175036</v>
       </c>
       <c r="C15" t="n">
-        <v>411.558070412808</v>
+        <v>372.4576753775958</v>
       </c>
       <c r="D15" t="n">
-        <v>281.4691030342883</v>
+        <v>372.4576753775958</v>
       </c>
       <c r="E15" t="n">
-        <v>281.4691030342883</v>
+        <v>236.0111844884835</v>
       </c>
       <c r="F15" t="n">
         <v>231.7510776621862</v>
@@ -5351,58 +5351,58 @@
         <v>112.8207494933212</v>
       </c>
       <c r="H15" t="n">
-        <v>35.4318262952983</v>
+        <v>35.43182629529828</v>
       </c>
       <c r="I15" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J15" t="n">
-        <v>219.6233314922259</v>
+        <v>47.9011374880981</v>
       </c>
       <c r="K15" t="n">
-        <v>309.6806743726189</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L15" t="n">
-        <v>460.8835373925528</v>
+        <v>289.1613433884251</v>
       </c>
       <c r="M15" t="n">
-        <v>649.9121110704809</v>
+        <v>478.1899170663533</v>
       </c>
       <c r="N15" t="n">
-        <v>853.3093278168238</v>
+        <v>681.5871338126963</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.93517738886</v>
+        <v>853.2129833847321</v>
       </c>
       <c r="P15" t="n">
-        <v>1150.113559414462</v>
+        <v>978.3913654103346</v>
       </c>
       <c r="Q15" t="n">
-        <v>1201.344515078395</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R15" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S15" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T15" t="n">
-        <v>1074.204152693018</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="U15" t="n">
-        <v>864.215317908454</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="V15" t="n">
-        <v>641.6753162795211</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="W15" t="n">
-        <v>411.558070412808</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="X15" t="n">
-        <v>411.558070412808</v>
+        <v>674.908240258465</v>
       </c>
       <c r="Y15" t="n">
-        <v>411.558070412808</v>
+        <v>674.908240258465</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.93270656279714</v>
+        <v>311.2377683105061</v>
       </c>
       <c r="C16" t="n">
-        <v>24.93270656279714</v>
+        <v>311.2377683105061</v>
       </c>
       <c r="D16" t="n">
-        <v>24.93270656279714</v>
+        <v>155.6046552130209</v>
       </c>
       <c r="E16" t="n">
-        <v>24.93270656279714</v>
+        <v>155.6046552130209</v>
       </c>
       <c r="F16" t="n">
-        <v>24.93270656279714</v>
+        <v>155.6046552130209</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93270656279714</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="H16" t="n">
-        <v>24.93270656279714</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="I16" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J16" t="n">
         <v>60.77439242645067</v>
       </c>
       <c r="K16" t="n">
-        <v>250.4357387611248</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L16" t="n">
-        <v>552.5439260250085</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M16" t="n">
-        <v>861.0861697396231</v>
+        <v>608.6263249772646</v>
       </c>
       <c r="N16" t="n">
-        <v>920.9424464339858</v>
+        <v>917.168568691879</v>
       </c>
       <c r="O16" t="n">
-        <v>1214.827447719367</v>
+        <v>1014.51180988207</v>
       </c>
       <c r="P16" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="Q16" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R16" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S16" t="n">
-        <v>978.9978459166331</v>
+        <v>1060.321586719824</v>
       </c>
       <c r="T16" t="n">
-        <v>747.3247517931545</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="U16" t="n">
-        <v>461.937610558991</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="V16" t="n">
-        <v>195.9582653798153</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="W16" t="n">
-        <v>24.93270656279714</v>
+        <v>545.3180905275231</v>
       </c>
       <c r="X16" t="n">
-        <v>24.93270656279714</v>
+        <v>311.2377683105061</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.93270656279714</v>
+        <v>311.2377683105061</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.93270656279714</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="C17" t="n">
-        <v>24.93270656279714</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="D17" t="n">
-        <v>24.93270656279714</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="E17" t="n">
-        <v>24.93270656279714</v>
+        <v>396.692023500261</v>
       </c>
       <c r="F17" t="n">
-        <v>24.93270656279714</v>
+        <v>396.692023500261</v>
       </c>
       <c r="G17" t="n">
-        <v>24.93270656279714</v>
+        <v>81.88512245484267</v>
       </c>
       <c r="H17" t="n">
-        <v>24.93270656279714</v>
+        <v>81.88512245484267</v>
       </c>
       <c r="I17" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J17" t="n">
-        <v>84.03350630819227</v>
+        <v>84.03350630819239</v>
       </c>
       <c r="K17" t="n">
-        <v>205.5903216845599</v>
+        <v>205.59032168456</v>
       </c>
       <c r="L17" t="n">
-        <v>380.378445155488</v>
+        <v>380.3784451554884</v>
       </c>
       <c r="M17" t="n">
-        <v>595.4490449214286</v>
+        <v>595.4490449214288</v>
       </c>
       <c r="N17" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872131</v>
       </c>
       <c r="O17" t="n">
         <v>1017.533812354171</v>
@@ -5542,25 +5542,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S17" t="n">
-        <v>1246.635328139857</v>
+        <v>1240.565483120319</v>
       </c>
       <c r="T17" t="n">
-        <v>1246.635328139857</v>
+        <v>1026.305825591098</v>
       </c>
       <c r="U17" t="n">
-        <v>991.0514793495347</v>
+        <v>1026.305825591098</v>
       </c>
       <c r="V17" t="n">
-        <v>676.2445783041162</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="W17" t="n">
-        <v>361.4376772586978</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="X17" t="n">
-        <v>46.63077621327932</v>
+        <v>711.4989245456794</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.93270656279714</v>
+        <v>711.4989245456794</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>273.5604516287685</v>
+        <v>508.3526792587051</v>
       </c>
       <c r="C18" t="n">
-        <v>122.9062211888607</v>
+        <v>357.6984488187973</v>
       </c>
       <c r="D18" t="n">
-        <v>122.9062211888607</v>
+        <v>357.6984488187973</v>
       </c>
       <c r="E18" t="n">
-        <v>24.93270656279714</v>
+        <v>221.251957929685</v>
       </c>
       <c r="F18" t="n">
-        <v>24.93270656279714</v>
+        <v>221.251957929685</v>
       </c>
       <c r="G18" t="n">
-        <v>24.93270656279714</v>
+        <v>102.32162976082</v>
       </c>
       <c r="H18" t="n">
         <v>24.93270656279714</v>
@@ -5594,52 +5594,52 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J18" t="n">
-        <v>242.6361324678255</v>
+        <v>47.90113748809812</v>
       </c>
       <c r="K18" t="n">
-        <v>332.6934753482184</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L18" t="n">
-        <v>483.8963383681524</v>
+        <v>289.1613433884252</v>
       </c>
       <c r="M18" t="n">
-        <v>672.9249120460805</v>
+        <v>478.1899170663534</v>
       </c>
       <c r="N18" t="n">
-        <v>876.3221287924234</v>
+        <v>681.5871338126964</v>
       </c>
       <c r="O18" t="n">
-        <v>1047.947978364459</v>
+        <v>853.2129833847321</v>
       </c>
       <c r="P18" t="n">
-        <v>1173.126360390062</v>
+        <v>1161.755227099346</v>
       </c>
       <c r="Q18" t="n">
-        <v>1224.357316053994</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R18" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="S18" t="n">
-        <v>1246.635328139857</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T18" t="n">
-        <v>1246.635328139857</v>
+        <v>960.2532524810922</v>
       </c>
       <c r="U18" t="n">
-        <v>1246.635328139857</v>
+        <v>960.2532524810922</v>
       </c>
       <c r="V18" t="n">
-        <v>1024.095326510924</v>
+        <v>737.7132508521593</v>
       </c>
       <c r="W18" t="n">
-        <v>793.9780806442109</v>
+        <v>737.7132508521593</v>
       </c>
       <c r="X18" t="n">
-        <v>604.6710029942226</v>
+        <v>548.406173202171</v>
       </c>
       <c r="Y18" t="n">
-        <v>425.3567860697298</v>
+        <v>548.406173202171</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
       <c r="C19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
       <c r="D19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
       <c r="E19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
       <c r="F19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
       <c r="G19" t="n">
-        <v>276.6099920329078</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I19" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J19" t="n">
-        <v>24.93270656279714</v>
+        <v>60.77439242645069</v>
       </c>
       <c r="K19" t="n">
-        <v>214.5940528974713</v>
+        <v>85.58066601844349</v>
       </c>
       <c r="L19" t="n">
-        <v>265.7763111005784</v>
+        <v>136.7629242215506</v>
       </c>
       <c r="M19" t="n">
-        <v>574.318554815193</v>
+        <v>412.0845648820747</v>
       </c>
       <c r="N19" t="n">
-        <v>882.8607985298077</v>
+        <v>720.6268085966892</v>
       </c>
       <c r="O19" t="n">
-        <v>933.3753648872143</v>
+        <v>1014.51180988207</v>
       </c>
       <c r="P19" t="n">
-        <v>1165.498883145001</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q19" t="n">
         <v>1246.635328139857</v>
@@ -5703,22 +5703,22 @@
         <v>1165.311587336665</v>
       </c>
       <c r="T19" t="n">
-        <v>933.6384932131866</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="U19" t="n">
-        <v>648.2513519790232</v>
+        <v>879.9244461025016</v>
       </c>
       <c r="V19" t="n">
-        <v>382.2720067998474</v>
+        <v>613.9451009233259</v>
       </c>
       <c r="W19" t="n">
-        <v>276.6099920329078</v>
+        <v>613.9451009233259</v>
       </c>
       <c r="X19" t="n">
-        <v>276.6099920329078</v>
+        <v>379.8647787063089</v>
       </c>
       <c r="Y19" t="n">
-        <v>276.6099920329078</v>
+        <v>156.7527175229523</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J20" t="n">
-        <v>84.0335063081925</v>
+        <v>84.03350630819233</v>
       </c>
       <c r="K20" t="n">
-        <v>205.59032168456</v>
+        <v>205.5903216845599</v>
       </c>
       <c r="L20" t="n">
-        <v>380.3784451554881</v>
+        <v>380.3784451554878</v>
       </c>
       <c r="M20" t="n">
-        <v>595.4490449214285</v>
+        <v>595.4490449214283</v>
       </c>
       <c r="N20" t="n">
-        <v>816.9986872872126</v>
+        <v>816.9986872872128</v>
       </c>
       <c r="O20" t="n">
         <v>1017.53381235417</v>
@@ -5779,25 +5779,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S20" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.22640635736</v>
       </c>
       <c r="T20" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.22640635736</v>
       </c>
       <c r="U20" t="n">
-        <v>1246.635328139856</v>
+        <v>872.642557567038</v>
       </c>
       <c r="V20" t="n">
-        <v>931.8284270944382</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="W20" t="n">
-        <v>617.0215260490199</v>
+        <v>339.7396076082154</v>
       </c>
       <c r="X20" t="n">
-        <v>302.2146250036016</v>
+        <v>339.7396076082154</v>
       </c>
       <c r="Y20" t="n">
-        <v>302.2146250036016</v>
+        <v>339.7396076082154</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>356.1828837790544</v>
+        <v>558.3990339276659</v>
       </c>
       <c r="C21" t="n">
-        <v>356.1828837790544</v>
+        <v>407.7448034877581</v>
       </c>
       <c r="D21" t="n">
-        <v>356.1828837790544</v>
+        <v>363.1999267668005</v>
       </c>
       <c r="E21" t="n">
-        <v>356.1828837790544</v>
+        <v>226.7534358776882</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7510776621862</v>
+        <v>102.32162976082</v>
       </c>
       <c r="G21" t="n">
-        <v>112.8207494933212</v>
+        <v>102.32162976082</v>
       </c>
       <c r="H21" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I21" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J21" t="n">
-        <v>219.6233314922254</v>
+        <v>47.90113748809807</v>
       </c>
       <c r="K21" t="n">
-        <v>309.6806743726184</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L21" t="n">
-        <v>460.8835373925523</v>
+        <v>289.161343388425</v>
       </c>
       <c r="M21" t="n">
-        <v>649.9121110704805</v>
+        <v>478.1899170663531</v>
       </c>
       <c r="N21" t="n">
-        <v>853.3093278168234</v>
+        <v>681.587133812696</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.935177388859</v>
+        <v>853.2129833847317</v>
       </c>
       <c r="P21" t="n">
-        <v>1150.113559414462</v>
+        <v>978.3913654103343</v>
       </c>
       <c r="Q21" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R21" t="n">
         <v>1246.635328139856</v>
       </c>
       <c r="S21" t="n">
-        <v>1132.684427927931</v>
+        <v>1132.68442792793</v>
       </c>
       <c r="T21" t="n">
-        <v>960.253252481092</v>
+        <v>960.2532524810915</v>
       </c>
       <c r="U21" t="n">
-        <v>750.2644176965279</v>
+        <v>960.2532524810915</v>
       </c>
       <c r="V21" t="n">
-        <v>527.7244160675949</v>
+        <v>737.7132508521586</v>
       </c>
       <c r="W21" t="n">
-        <v>507.9792182200157</v>
+        <v>737.7132508521586</v>
       </c>
       <c r="X21" t="n">
-        <v>507.9792182200157</v>
+        <v>737.7132508521586</v>
       </c>
       <c r="Y21" t="n">
-        <v>507.9792182200157</v>
+        <v>558.3990339276659</v>
       </c>
     </row>
     <row r="22">
@@ -5910,22 +5910,22 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J22" t="n">
-        <v>60.77439242645067</v>
+        <v>60.77439242645066</v>
       </c>
       <c r="K22" t="n">
         <v>250.4357387611248</v>
       </c>
       <c r="L22" t="n">
-        <v>301.6179969642319</v>
+        <v>482.711562090278</v>
       </c>
       <c r="M22" t="n">
-        <v>610.1602406788463</v>
+        <v>791.2538058048924</v>
       </c>
       <c r="N22" t="n">
-        <v>918.7024843934607</v>
+        <v>1099.796049519507</v>
       </c>
       <c r="O22" t="n">
-        <v>960.7859361433727</v>
+        <v>1141.879501269419</v>
       </c>
       <c r="P22" t="n">
         <v>1165.498883145</v>
@@ -5934,22 +5934,22 @@
         <v>1246.635328139856</v>
       </c>
       <c r="R22" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S22" t="n">
-        <v>978.9978459166326</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T22" t="n">
-        <v>747.3247517931541</v>
+        <v>1093.709917261976</v>
       </c>
       <c r="U22" t="n">
-        <v>461.9376105589906</v>
+        <v>808.3227760278122</v>
       </c>
       <c r="V22" t="n">
-        <v>195.9582653798148</v>
+        <v>542.3434308486364</v>
       </c>
       <c r="W22" t="n">
-        <v>24.93270656279713</v>
+        <v>259.013028779814</v>
       </c>
       <c r="X22" t="n">
         <v>24.93270656279713</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>931.828427094438</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="C23" t="n">
-        <v>931.828427094438</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="D23" t="n">
-        <v>931.828427094438</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="E23" t="n">
-        <v>617.0215260490197</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="F23" t="n">
-        <v>302.2146250036014</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G23" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H23" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I23" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J23" t="n">
-        <v>84.03350630819233</v>
+        <v>84.03350630819273</v>
       </c>
       <c r="K23" t="n">
-        <v>205.5903216845599</v>
+        <v>205.5903216845604</v>
       </c>
       <c r="L23" t="n">
-        <v>380.3784451554882</v>
+        <v>380.3784451554885</v>
       </c>
       <c r="M23" t="n">
-        <v>595.4490449214285</v>
+        <v>595.449044921429</v>
       </c>
       <c r="N23" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872132</v>
       </c>
       <c r="O23" t="n">
-        <v>1017.53381235417</v>
+        <v>1017.533812354171</v>
       </c>
       <c r="P23" t="n">
         <v>1166.260251496407</v>
       </c>
       <c r="Q23" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R23" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S23" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="T23" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="U23" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="V23" t="n">
-        <v>1246.635328139856</v>
+        <v>969.3534096990523</v>
       </c>
       <c r="W23" t="n">
-        <v>931.828427094438</v>
+        <v>654.546508653634</v>
       </c>
       <c r="X23" t="n">
-        <v>931.828427094438</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="Y23" t="n">
-        <v>931.828427094438</v>
+        <v>24.93270656279714</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>540.7820128356917</v>
+        <v>252.9256106228908</v>
       </c>
       <c r="C24" t="n">
-        <v>390.1277823957839</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="D24" t="n">
-        <v>390.1277823957839</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="E24" t="n">
-        <v>356.1828837790544</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="F24" t="n">
-        <v>231.7510776621862</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="G24" t="n">
-        <v>112.8207494933212</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="H24" t="n">
-        <v>35.43182629529829</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="I24" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J24" t="n">
         <v>242.6361324678255</v>
       </c>
       <c r="K24" t="n">
-        <v>332.6934753482184</v>
+        <v>354.971487434081</v>
       </c>
       <c r="L24" t="n">
-        <v>506.1743504540145</v>
+        <v>506.1743504540149</v>
       </c>
       <c r="M24" t="n">
-        <v>695.2029241319426</v>
+        <v>695.2029241319431</v>
       </c>
       <c r="N24" t="n">
-        <v>898.6001408782855</v>
+        <v>898.600140878286</v>
       </c>
       <c r="O24" t="n">
-        <v>1070.225990450321</v>
+        <v>1070.225990450322</v>
       </c>
       <c r="P24" t="n">
         <v>1195.404372475924</v>
       </c>
       <c r="Q24" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R24" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S24" t="n">
-        <v>1132.68442792793</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T24" t="n">
-        <v>1132.68442792793</v>
+        <v>1074.204152693018</v>
       </c>
       <c r="U24" t="n">
-        <v>922.6955931433662</v>
+        <v>1074.204152693018</v>
       </c>
       <c r="V24" t="n">
-        <v>922.6955931433662</v>
+        <v>851.664151064085</v>
       </c>
       <c r="W24" t="n">
-        <v>692.5783472766531</v>
+        <v>621.5469051973719</v>
       </c>
       <c r="X24" t="n">
-        <v>692.5783472766531</v>
+        <v>432.2398275473835</v>
       </c>
       <c r="Y24" t="n">
-        <v>692.5783472766531</v>
+        <v>252.9256106228908</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1082.640097620631</v>
+        <v>675.3296990530346</v>
       </c>
       <c r="C25" t="n">
-        <v>912.4349796866197</v>
+        <v>505.1245811190238</v>
       </c>
       <c r="D25" t="n">
-        <v>756.8018665891345</v>
+        <v>505.1245811190238</v>
       </c>
       <c r="E25" t="n">
-        <v>601.243054448337</v>
+        <v>349.5657689782263</v>
       </c>
       <c r="F25" t="n">
-        <v>443.9171196613099</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="G25" t="n">
-        <v>276.6099920329078</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H25" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I25" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J25" t="n">
-        <v>24.93270656279713</v>
+        <v>60.77439242645067</v>
       </c>
       <c r="K25" t="n">
-        <v>214.5940528974713</v>
+        <v>250.4357387611248</v>
       </c>
       <c r="L25" t="n">
-        <v>265.7763111005784</v>
+        <v>482.7115620902782</v>
       </c>
       <c r="M25" t="n">
-        <v>574.3185548151928</v>
+        <v>791.2538058048927</v>
       </c>
       <c r="N25" t="n">
-        <v>882.8607985298072</v>
+        <v>1099.796049519507</v>
       </c>
       <c r="O25" t="n">
-        <v>933.3753648872137</v>
+        <v>1141.879501269419</v>
       </c>
       <c r="P25" t="n">
-        <v>1165.498883145</v>
+        <v>1165.498883145001</v>
       </c>
       <c r="Q25" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R25" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S25" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.635328139856</v>
+        <v>1192.740423338874</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.635328139856</v>
+        <v>1192.740423338874</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.635328139856</v>
+        <v>1192.740423338874</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.635328139856</v>
+        <v>909.4100212700515</v>
       </c>
       <c r="X25" t="n">
-        <v>1246.635328139856</v>
+        <v>675.3296990530346</v>
       </c>
       <c r="Y25" t="n">
-        <v>1246.635328139856</v>
+        <v>675.3296990530346</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>676.2445783041157</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="C26" t="n">
-        <v>676.2445783041157</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="D26" t="n">
-        <v>676.2445783041157</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="E26" t="n">
-        <v>361.4376772586975</v>
+        <v>339.7396076082154</v>
       </c>
       <c r="F26" t="n">
-        <v>46.6307762132792</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G26" t="n">
         <v>24.93270656279713</v>
@@ -6226,19 +6226,19 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J26" t="n">
-        <v>84.03350630819236</v>
+        <v>84.03350630819216</v>
       </c>
       <c r="K26" t="n">
-        <v>205.5903216845599</v>
+        <v>205.5903216845598</v>
       </c>
       <c r="L26" t="n">
-        <v>380.3784451554881</v>
+        <v>380.3784451554879</v>
       </c>
       <c r="M26" t="n">
-        <v>595.4490449214285</v>
+        <v>595.4490449214283</v>
       </c>
       <c r="N26" t="n">
-        <v>816.9986872872126</v>
+        <v>816.9986872872128</v>
       </c>
       <c r="O26" t="n">
         <v>1017.53381235417</v>
@@ -6268,10 +6268,10 @@
         <v>991.051479349534</v>
       </c>
       <c r="X26" t="n">
-        <v>991.051479349534</v>
+        <v>676.2445783041157</v>
       </c>
       <c r="Y26" t="n">
-        <v>991.051479349534</v>
+        <v>654.5465086536337</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>382.1495530457748</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="C27" t="n">
-        <v>231.495322605867</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="D27" t="n">
-        <v>101.4063552273474</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="E27" t="n">
-        <v>24.93270656279713</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="F27" t="n">
-        <v>24.93270656279713</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="G27" t="n">
-        <v>24.93270656279713</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="H27" t="n">
-        <v>24.93270656279713</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="I27" t="n">
         <v>24.93270656279713</v>
@@ -6332,25 +6332,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S27" t="n">
-        <v>1132.68442792793</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T27" t="n">
-        <v>1132.68442792793</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="U27" t="n">
-        <v>1132.68442792793</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="V27" t="n">
-        <v>1132.68442792793</v>
+        <v>641.6753162795204</v>
       </c>
       <c r="W27" t="n">
-        <v>902.5671820612172</v>
+        <v>411.5580704128073</v>
       </c>
       <c r="X27" t="n">
-        <v>713.2601044112289</v>
+        <v>222.250992762819</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.9458874867362</v>
+        <v>42.93677583832618</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>276.6099920329078</v>
+        <v>562.6691474171697</v>
       </c>
       <c r="C28" t="n">
-        <v>276.6099920329078</v>
+        <v>562.6691474171697</v>
       </c>
       <c r="D28" t="n">
-        <v>276.6099920329078</v>
+        <v>407.0360343196845</v>
       </c>
       <c r="E28" t="n">
-        <v>276.6099920329078</v>
+        <v>251.477222178887</v>
       </c>
       <c r="F28" t="n">
-        <v>276.6099920329078</v>
+        <v>251.477222178887</v>
       </c>
       <c r="G28" t="n">
-        <v>276.6099920329078</v>
+        <v>84.17009455048483</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I28" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J28" t="n">
-        <v>24.93270656279713</v>
+        <v>60.77439242645066</v>
       </c>
       <c r="K28" t="n">
-        <v>179.727754351702</v>
+        <v>223.0251675049657</v>
       </c>
       <c r="L28" t="n">
-        <v>230.9100125548091</v>
+        <v>274.2074257080728</v>
       </c>
       <c r="M28" t="n">
-        <v>539.4522562694235</v>
+        <v>582.7496694226872</v>
       </c>
       <c r="N28" t="n">
-        <v>847.9944999840379</v>
+        <v>891.2919131373017</v>
       </c>
       <c r="O28" t="n">
-        <v>1141.879501269419</v>
+        <v>933.3753648872137</v>
       </c>
       <c r="P28" t="n">
         <v>1165.498883145</v>
@@ -6411,25 +6411,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S28" t="n">
-        <v>1246.635328139856</v>
+        <v>1060.321586719824</v>
       </c>
       <c r="T28" t="n">
-        <v>1017.132777502104</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.132777502104</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.132777502104</v>
+        <v>562.6691474171697</v>
       </c>
       <c r="W28" t="n">
-        <v>733.8023754332814</v>
+        <v>562.6691474171697</v>
       </c>
       <c r="X28" t="n">
-        <v>499.7220532162645</v>
+        <v>562.6691474171697</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.6099920329078</v>
+        <v>562.6691474171697</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="C29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="D29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="E29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="F29" t="n">
-        <v>24.93270656279713</v>
+        <v>302.2146250036014</v>
       </c>
       <c r="G29" t="n">
-        <v>24.93270656279713</v>
+        <v>302.2146250036014</v>
       </c>
       <c r="H29" t="n">
         <v>24.93270656279713</v>
@@ -6463,19 +6463,19 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J29" t="n">
-        <v>84.03350630819233</v>
+        <v>84.03350630819236</v>
       </c>
       <c r="K29" t="n">
         <v>205.5903216845599</v>
       </c>
       <c r="L29" t="n">
-        <v>380.3784451554882</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M29" t="n">
-        <v>595.4490449214286</v>
+        <v>595.4490449214285</v>
       </c>
       <c r="N29" t="n">
-        <v>816.9986872872129</v>
+        <v>816.9986872872126</v>
       </c>
       <c r="O29" t="n">
         <v>1017.53381235417</v>
@@ -6490,25 +6490,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S29" t="n">
-        <v>1224.937258489374</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T29" t="n">
-        <v>1224.937258489374</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U29" t="n">
-        <v>969.353409699052</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="V29" t="n">
-        <v>654.5465086536337</v>
+        <v>931.828427094438</v>
       </c>
       <c r="W29" t="n">
-        <v>339.7396076082154</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="X29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
       <c r="Y29" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490197</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.6293746681666</v>
+        <v>63.57161684420373</v>
       </c>
       <c r="C30" t="n">
-        <v>492.6293746681666</v>
+        <v>63.57161684420373</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6293746681666</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="E30" t="n">
-        <v>356.1828837790544</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F30" t="n">
-        <v>231.7510776621862</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8207494933212</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H30" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I30" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J30" t="n">
-        <v>100.1096614555389</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K30" t="n">
-        <v>190.1670043359319</v>
+        <v>332.6934753482184</v>
       </c>
       <c r="L30" t="n">
-        <v>341.3698673558658</v>
+        <v>483.8963383681524</v>
       </c>
       <c r="M30" t="n">
-        <v>649.9121110704803</v>
+        <v>672.9249120460805</v>
       </c>
       <c r="N30" t="n">
-        <v>853.3093278168232</v>
+        <v>876.3221287924234</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.935177388859</v>
+        <v>1047.947978364459</v>
       </c>
       <c r="P30" t="n">
-        <v>1150.113559414461</v>
+        <v>1173.126360390062</v>
       </c>
       <c r="Q30" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R30" t="n">
         <v>1246.635328139856</v>
       </c>
       <c r="S30" t="n">
-        <v>1132.68442792793</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T30" t="n">
-        <v>1112.049672243937</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U30" t="n">
-        <v>902.0608374593726</v>
+        <v>1036.646493355292</v>
       </c>
       <c r="V30" t="n">
-        <v>902.0608374593726</v>
+        <v>814.1064917263593</v>
       </c>
       <c r="W30" t="n">
-        <v>671.9435915926595</v>
+        <v>583.9892458596462</v>
       </c>
       <c r="X30" t="n">
-        <v>671.9435915926595</v>
+        <v>394.6821682096578</v>
       </c>
       <c r="Y30" t="n">
-        <v>492.6293746681666</v>
+        <v>215.3679512851651</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>610.9475195681953</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="C31" t="n">
-        <v>440.7424016341844</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="D31" t="n">
-        <v>285.1092885366992</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="E31" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F31" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H31" t="n">
-        <v>129.5504763959017</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I31" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J31" t="n">
-        <v>31.78215435665621</v>
+        <v>60.77439242645066</v>
       </c>
       <c r="K31" t="n">
-        <v>221.4435006913304</v>
+        <v>85.58066601844344</v>
       </c>
       <c r="L31" t="n">
-        <v>523.5516879552141</v>
+        <v>136.7629242215505</v>
       </c>
       <c r="M31" t="n">
-        <v>579.6340869074701</v>
+        <v>445.3051679361649</v>
       </c>
       <c r="N31" t="n">
-        <v>639.4903636018328</v>
+        <v>753.8474116507793</v>
       </c>
       <c r="O31" t="n">
-        <v>933.3753648872137</v>
+        <v>1047.73241293616</v>
       </c>
       <c r="P31" t="n">
-        <v>1165.498883145</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="Q31" t="n">
         <v>1246.635328139856</v>
       </c>
       <c r="R31" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S31" t="n">
-        <v>1165.311587336665</v>
+        <v>1060.321586719824</v>
       </c>
       <c r="T31" t="n">
-        <v>933.6384932131859</v>
+        <v>828.6484925963455</v>
       </c>
       <c r="U31" t="n">
-        <v>933.6384932131859</v>
+        <v>543.261351362182</v>
       </c>
       <c r="V31" t="n">
-        <v>933.6384932131859</v>
+        <v>277.2820061830063</v>
       </c>
       <c r="W31" t="n">
-        <v>933.6384932131859</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="X31" t="n">
-        <v>933.6384932131859</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="Y31" t="n">
-        <v>796.1555382594966</v>
+        <v>24.93270656279713</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="C32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="D32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="E32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F32" t="n">
-        <v>343.575998992399</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G32" t="n">
-        <v>28.76909794698076</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H32" t="n">
-        <v>28.76909794698076</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I32" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J32" t="n">
-        <v>84.03350630819216</v>
+        <v>84.03350630819236</v>
       </c>
       <c r="K32" t="n">
-        <v>205.5903216845598</v>
+        <v>205.5903216845599</v>
       </c>
       <c r="L32" t="n">
-        <v>380.3784451554879</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M32" t="n">
-        <v>595.4490449214283</v>
+        <v>595.4490449214285</v>
       </c>
       <c r="N32" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872126</v>
       </c>
       <c r="O32" t="n">
         <v>1017.53381235417</v>
@@ -6727,25 +6727,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S32" t="n">
-        <v>1128.22640635736</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T32" t="n">
-        <v>913.9667488281395</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U32" t="n">
-        <v>658.3829000378173</v>
+        <v>969.353409699052</v>
       </c>
       <c r="V32" t="n">
-        <v>658.3829000378173</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="W32" t="n">
-        <v>658.3829000378173</v>
+        <v>339.7396076082154</v>
       </c>
       <c r="X32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="Y32" t="n">
-        <v>658.3829000378173</v>
+        <v>24.93270656279713</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.554201387205</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="C33" t="n">
-        <v>415.8999709472973</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="D33" t="n">
-        <v>285.8110035687776</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="E33" t="n">
-        <v>149.3645126796653</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="F33" t="n">
-        <v>24.93270656279713</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="G33" t="n">
         <v>24.93270656279713</v>
@@ -6779,28 +6779,28 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J33" t="n">
-        <v>219.6233314922252</v>
+        <v>47.90113748809807</v>
       </c>
       <c r="K33" t="n">
-        <v>309.6806743726182</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L33" t="n">
-        <v>460.8835373925521</v>
+        <v>289.161343388425</v>
       </c>
       <c r="M33" t="n">
-        <v>649.9121110704803</v>
+        <v>478.1899170663531</v>
       </c>
       <c r="N33" t="n">
-        <v>853.3093278168232</v>
+        <v>681.587133812696</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.935177388859</v>
+        <v>853.2129833847317</v>
       </c>
       <c r="P33" t="n">
-        <v>1150.113559414461</v>
+        <v>978.3913654103343</v>
       </c>
       <c r="Q33" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R33" t="n">
         <v>1246.635328139856</v>
@@ -6809,22 +6809,22 @@
         <v>1246.635328139856</v>
       </c>
       <c r="T33" t="n">
-        <v>1086.971830402647</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="U33" t="n">
-        <v>1086.971830402647</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="V33" t="n">
-        <v>1086.971830402647</v>
+        <v>641.6753162795204</v>
       </c>
       <c r="W33" t="n">
-        <v>1086.971830402647</v>
+        <v>411.5580704128073</v>
       </c>
       <c r="X33" t="n">
-        <v>897.6647527526591</v>
+        <v>295.6593691726235</v>
       </c>
       <c r="Y33" t="n">
-        <v>718.3505358281664</v>
+        <v>295.6593691726235</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.5824867455269</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="C34" t="n">
         <v>24.93270656279713</v>
@@ -6858,19 +6858,19 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J34" t="n">
-        <v>60.77439242645066</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="K34" t="n">
-        <v>250.4357387611248</v>
+        <v>49.7389801547899</v>
       </c>
       <c r="L34" t="n">
-        <v>552.5439260250085</v>
+        <v>351.8471674186736</v>
       </c>
       <c r="M34" t="n">
-        <v>608.6263249772645</v>
+        <v>660.389411133288</v>
       </c>
       <c r="N34" t="n">
-        <v>720.6268085966888</v>
+        <v>968.9316548479025</v>
       </c>
       <c r="O34" t="n">
         <v>1014.51180988207</v>
@@ -6891,19 +6891,19 @@
         <v>1014.962234016378</v>
       </c>
       <c r="U34" t="n">
-        <v>1014.962234016378</v>
+        <v>808.3227760278122</v>
       </c>
       <c r="V34" t="n">
-        <v>748.9828888372018</v>
+        <v>542.3434308486364</v>
       </c>
       <c r="W34" t="n">
-        <v>748.9828888372018</v>
+        <v>259.013028779814</v>
       </c>
       <c r="X34" t="n">
-        <v>514.9025666201849</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="Y34" t="n">
-        <v>291.7905054368282</v>
+        <v>24.93270656279713</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.93270656279713</v>
+        <v>461.984920774895</v>
       </c>
       <c r="C35" t="n">
-        <v>24.93270656279713</v>
+        <v>461.984920774895</v>
       </c>
       <c r="D35" t="n">
-        <v>24.93270656279713</v>
+        <v>461.984920774895</v>
       </c>
       <c r="E35" t="n">
-        <v>24.93270656279713</v>
+        <v>461.984920774895</v>
       </c>
       <c r="F35" t="n">
-        <v>24.93270656279713</v>
+        <v>396.6920235002609</v>
       </c>
       <c r="G35" t="n">
-        <v>24.93270656279713</v>
+        <v>81.88512245484267</v>
       </c>
       <c r="H35" t="n">
-        <v>24.93270656279713</v>
+        <v>81.88512245484267</v>
       </c>
       <c r="I35" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J35" t="n">
-        <v>84.03350630819233</v>
+        <v>84.03350630819216</v>
       </c>
       <c r="K35" t="n">
-        <v>205.5903216845599</v>
+        <v>205.5903216845598</v>
       </c>
       <c r="L35" t="n">
-        <v>380.3784451554882</v>
+        <v>380.3784451554879</v>
       </c>
       <c r="M35" t="n">
-        <v>595.4490449214286</v>
+        <v>595.4490449214283</v>
       </c>
       <c r="N35" t="n">
         <v>816.9986872872128</v>
@@ -6967,22 +6967,22 @@
         <v>1246.635328139856</v>
       </c>
       <c r="T35" t="n">
-        <v>1246.635328139856</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U35" t="n">
-        <v>1246.635328139856</v>
+        <v>776.7918218203133</v>
       </c>
       <c r="V35" t="n">
-        <v>969.353409699052</v>
+        <v>461.984920774895</v>
       </c>
       <c r="W35" t="n">
-        <v>654.5465086536337</v>
+        <v>461.984920774895</v>
       </c>
       <c r="X35" t="n">
-        <v>339.7396076082154</v>
+        <v>461.984920774895</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.93270656279713</v>
+        <v>461.984920774895</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>231.7510776621862</v>
+        <v>259.761735971846</v>
       </c>
       <c r="C36" t="n">
-        <v>231.7510776621862</v>
+        <v>259.761735971846</v>
       </c>
       <c r="D36" t="n">
-        <v>231.7510776621862</v>
+        <v>259.761735971846</v>
       </c>
       <c r="E36" t="n">
-        <v>231.7510776621862</v>
+        <v>259.761735971846</v>
       </c>
       <c r="F36" t="n">
-        <v>231.7510776621862</v>
+        <v>135.3299298549778</v>
       </c>
       <c r="G36" t="n">
         <v>112.8207494933212</v>
@@ -7037,7 +7037,7 @@
         <v>1173.126360390062</v>
       </c>
       <c r="Q36" t="n">
-        <v>1224.357316053994</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R36" t="n">
         <v>1246.635328139856</v>
@@ -7046,22 +7046,22 @@
         <v>1246.635328139856</v>
       </c>
       <c r="T36" t="n">
-        <v>1083.704237592385</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="U36" t="n">
-        <v>873.7154028078206</v>
+        <v>864.2153179084534</v>
       </c>
       <c r="V36" t="n">
-        <v>651.1754011788877</v>
+        <v>641.6753162795204</v>
       </c>
       <c r="W36" t="n">
-        <v>421.0581553121745</v>
+        <v>411.5580704128073</v>
       </c>
       <c r="X36" t="n">
-        <v>231.7510776621862</v>
+        <v>411.5580704128073</v>
       </c>
       <c r="Y36" t="n">
-        <v>231.7510776621862</v>
+        <v>411.5580704128073</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.6246982376626</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="C37" t="n">
-        <v>225.6246982376626</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99158514017734</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99158514017734</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F37" t="n">
         <v>24.93270656279713</v>
@@ -7095,22 +7095,22 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J37" t="n">
-        <v>24.93270656279713</v>
+        <v>60.77439242645066</v>
       </c>
       <c r="K37" t="n">
-        <v>49.7389801547899</v>
+        <v>85.58066601844344</v>
       </c>
       <c r="L37" t="n">
-        <v>312.0464575496651</v>
+        <v>136.7629242215505</v>
       </c>
       <c r="M37" t="n">
-        <v>620.5887012642795</v>
+        <v>445.3051679361649</v>
       </c>
       <c r="N37" t="n">
-        <v>929.1309449788939</v>
+        <v>753.8474116507793</v>
       </c>
       <c r="O37" t="n">
-        <v>1223.015946264275</v>
+        <v>1047.73241293616</v>
       </c>
       <c r="P37" t="n">
         <v>1246.635328139856</v>
@@ -7122,25 +7122,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S37" t="n">
-        <v>1060.321586719824</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T37" t="n">
-        <v>1060.321586719824</v>
+        <v>1014.962234016378</v>
       </c>
       <c r="U37" t="n">
-        <v>774.9344454856607</v>
+        <v>729.5750927822141</v>
       </c>
       <c r="V37" t="n">
-        <v>508.955100306485</v>
+        <v>463.5957476030384</v>
       </c>
       <c r="W37" t="n">
-        <v>225.6246982376626</v>
+        <v>259.013028779814</v>
       </c>
       <c r="X37" t="n">
-        <v>225.6246982376626</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.6246982376626</v>
+        <v>24.93270656279713</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="C38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="D38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="E38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="F38" t="n">
-        <v>339.7396076082155</v>
+        <v>642.2032800694822</v>
       </c>
       <c r="G38" t="n">
-        <v>24.93270656279714</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="H38" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I38" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J38" t="n">
-        <v>84.03350630819273</v>
+        <v>84.03350630819233</v>
       </c>
       <c r="K38" t="n">
-        <v>205.5903216845604</v>
+        <v>205.5903216845599</v>
       </c>
       <c r="L38" t="n">
-        <v>380.3784451554886</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M38" t="n">
-        <v>595.4490449214289</v>
+        <v>595.4490449214284</v>
       </c>
       <c r="N38" t="n">
-        <v>816.9986872872132</v>
+        <v>816.9986872872125</v>
       </c>
       <c r="O38" t="n">
-        <v>1017.533812354171</v>
+        <v>1017.53381235417</v>
       </c>
       <c r="P38" t="n">
         <v>1166.260251496407</v>
       </c>
       <c r="Q38" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R38" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S38" t="n">
-        <v>1128.226406357361</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T38" t="n">
-        <v>913.96674882814</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U38" t="n">
-        <v>658.3829000378178</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="V38" t="n">
-        <v>654.546508653634</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="W38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="X38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
       <c r="Y38" t="n">
-        <v>654.546508653634</v>
+        <v>957.0101811149004</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.93270656279714</v>
+        <v>566.554201387205</v>
       </c>
       <c r="C39" t="n">
-        <v>24.93270656279714</v>
+        <v>415.8999709472973</v>
       </c>
       <c r="D39" t="n">
-        <v>24.93270656279714</v>
+        <v>285.8110035687776</v>
       </c>
       <c r="E39" t="n">
-        <v>24.93270656279714</v>
+        <v>149.3645126796653</v>
       </c>
       <c r="F39" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G39" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H39" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I39" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J39" t="n">
         <v>242.6361324678255</v>
@@ -7271,34 +7271,34 @@
         <v>1047.947978364459</v>
       </c>
       <c r="P39" t="n">
-        <v>1195.404372475924</v>
+        <v>1173.126360390062</v>
       </c>
       <c r="Q39" t="n">
-        <v>1246.635328139857</v>
+        <v>1224.357316053994</v>
       </c>
       <c r="R39" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S39" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T39" t="n">
-        <v>1207.99641785845</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U39" t="n">
-        <v>998.0075830738856</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="V39" t="n">
-        <v>775.4675814449527</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="W39" t="n">
-        <v>545.3503355782395</v>
+        <v>1016.518082273143</v>
       </c>
       <c r="X39" t="n">
-        <v>356.0432579282513</v>
+        <v>827.2110046231548</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.7290410037585</v>
+        <v>647.8967876986621</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.93270656279714</v>
+        <v>506.3297497350907</v>
       </c>
       <c r="C40" t="n">
-        <v>24.93270656279714</v>
+        <v>336.1246318010799</v>
       </c>
       <c r="D40" t="n">
-        <v>24.93270656279714</v>
+        <v>180.4915187035946</v>
       </c>
       <c r="E40" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F40" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G40" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H40" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I40" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="J40" t="n">
-        <v>60.77439242645067</v>
+        <v>60.77439242645066</v>
       </c>
       <c r="K40" t="n">
-        <v>85.58066601844345</v>
+        <v>85.58066601844344</v>
       </c>
       <c r="L40" t="n">
-        <v>312.0464575496653</v>
+        <v>230.9100125548091</v>
       </c>
       <c r="M40" t="n">
-        <v>620.5887012642798</v>
+        <v>539.4522562694235</v>
       </c>
       <c r="N40" t="n">
-        <v>929.1309449788944</v>
+        <v>847.9944999840379</v>
       </c>
       <c r="O40" t="n">
-        <v>1223.015946264275</v>
+        <v>1141.879501269419</v>
       </c>
       <c r="P40" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.498883145</v>
       </c>
       <c r="Q40" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R40" t="n">
-        <v>1246.635328139857</v>
+        <v>1209.703726512765</v>
       </c>
       <c r="S40" t="n">
-        <v>1091.302689168437</v>
+        <v>1023.389985092733</v>
       </c>
       <c r="T40" t="n">
-        <v>859.6295950449587</v>
+        <v>791.7168909692541</v>
       </c>
       <c r="U40" t="n">
-        <v>574.2424538107953</v>
+        <v>506.3297497350907</v>
       </c>
       <c r="V40" t="n">
-        <v>308.2631086316195</v>
+        <v>506.3297497350907</v>
       </c>
       <c r="W40" t="n">
-        <v>24.93270656279714</v>
+        <v>506.3297497350907</v>
       </c>
       <c r="X40" t="n">
-        <v>24.93270656279714</v>
+        <v>506.3297497350907</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.93270656279714</v>
+        <v>506.3297497350907</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>931.8284270944383</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="C41" t="n">
-        <v>931.8284270944383</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="D41" t="n">
-        <v>931.8284270944383</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="E41" t="n">
-        <v>931.8284270944383</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="F41" t="n">
-        <v>617.0215260490199</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G41" t="n">
-        <v>302.2146250036016</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H41" t="n">
-        <v>81.88512245484269</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I41" t="n">
         <v>24.93270656279714</v>
@@ -7414,16 +7414,16 @@
         <v>84.03350630819273</v>
       </c>
       <c r="K41" t="n">
-        <v>205.5903216845602</v>
+        <v>205.5903216845604</v>
       </c>
       <c r="L41" t="n">
-        <v>380.3784451554883</v>
+        <v>380.3784451554886</v>
       </c>
       <c r="M41" t="n">
-        <v>595.4490449214287</v>
+        <v>595.449044921429</v>
       </c>
       <c r="N41" t="n">
-        <v>816.9986872872129</v>
+        <v>816.9986872872132</v>
       </c>
       <c r="O41" t="n">
         <v>1017.53381235417</v>
@@ -7438,25 +7438,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S41" t="n">
-        <v>1246.635328139857</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="T41" t="n">
-        <v>1246.635328139857</v>
+        <v>913.96674882814</v>
       </c>
       <c r="U41" t="n">
-        <v>1246.635328139857</v>
+        <v>658.3829000378178</v>
       </c>
       <c r="V41" t="n">
-        <v>1246.635328139857</v>
+        <v>343.5759989923994</v>
       </c>
       <c r="W41" t="n">
-        <v>1246.635328139857</v>
+        <v>343.5759989923994</v>
       </c>
       <c r="X41" t="n">
-        <v>1246.635328139857</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1246.635328139857</v>
+        <v>339.7396076082155</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5469051973719</v>
+        <v>577.0533211197062</v>
       </c>
       <c r="C42" t="n">
-        <v>470.8926747574641</v>
+        <v>426.3990906797985</v>
       </c>
       <c r="D42" t="n">
-        <v>340.8037073789444</v>
+        <v>296.3101233012788</v>
       </c>
       <c r="E42" t="n">
-        <v>204.3572164898321</v>
+        <v>159.8636324121665</v>
       </c>
       <c r="F42" t="n">
-        <v>204.3572164898321</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="G42" t="n">
-        <v>112.8207494933212</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="H42" t="n">
         <v>35.4318262952983</v>
@@ -7511,7 +7511,7 @@
         <v>978.3913654103343</v>
       </c>
       <c r="Q42" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R42" t="n">
         <v>1246.635328139857</v>
@@ -7520,22 +7520,22 @@
         <v>1246.635328139857</v>
       </c>
       <c r="T42" t="n">
-        <v>1074.204152693018</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U42" t="n">
-        <v>1074.204152693018</v>
+        <v>1168.21461732312</v>
       </c>
       <c r="V42" t="n">
-        <v>851.664151064085</v>
+        <v>945.6746156941872</v>
       </c>
       <c r="W42" t="n">
-        <v>621.5469051973719</v>
+        <v>945.6746156941872</v>
       </c>
       <c r="X42" t="n">
-        <v>621.5469051973719</v>
+        <v>756.3675380441989</v>
       </c>
       <c r="Y42" t="n">
-        <v>621.5469051973719</v>
+        <v>577.0533211197062</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>352.463759283835</v>
+        <v>663.6556845221178</v>
       </c>
       <c r="C43" t="n">
-        <v>182.2586413498242</v>
+        <v>493.4505665881069</v>
       </c>
       <c r="D43" t="n">
-        <v>182.2586413498242</v>
+        <v>337.8174534906217</v>
       </c>
       <c r="E43" t="n">
         <v>182.2586413498242</v>
@@ -7569,52 +7569,52 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J43" t="n">
-        <v>60.77439242645067</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="K43" t="n">
-        <v>250.4357387611248</v>
+        <v>214.5940528974713</v>
       </c>
       <c r="L43" t="n">
-        <v>301.6179969642319</v>
+        <v>516.702240161355</v>
       </c>
       <c r="M43" t="n">
-        <v>610.1602406788464</v>
+        <v>572.784639113611</v>
       </c>
       <c r="N43" t="n">
-        <v>918.702484393461</v>
+        <v>881.3268828282255</v>
       </c>
       <c r="O43" t="n">
-        <v>1212.587485678842</v>
+        <v>1175.211884113606</v>
       </c>
       <c r="P43" t="n">
-        <v>1246.635328139857</v>
+        <v>1198.831265989188</v>
       </c>
       <c r="Q43" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="R43" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="S43" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="U43" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="V43" t="n">
-        <v>1092.986544753031</v>
+        <v>899.3322421574893</v>
       </c>
       <c r="W43" t="n">
-        <v>809.6561426842086</v>
+        <v>897.7360067391347</v>
       </c>
       <c r="X43" t="n">
-        <v>575.5758204671916</v>
+        <v>663.6556845221178</v>
       </c>
       <c r="Y43" t="n">
-        <v>352.463759283835</v>
+        <v>663.6556845221178</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>658.3829000378178</v>
+        <v>28.76909794698065</v>
       </c>
       <c r="C44" t="n">
-        <v>658.3829000378178</v>
+        <v>28.76909794698065</v>
       </c>
       <c r="D44" t="n">
-        <v>658.3829000378178</v>
+        <v>28.76909794698065</v>
       </c>
       <c r="E44" t="n">
-        <v>658.3829000378178</v>
+        <v>28.76909794698065</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5759989923994</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="G44" t="n">
-        <v>81.88512245484269</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="H44" t="n">
-        <v>81.88512245484269</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="I44" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="J44" t="n">
-        <v>84.03350630819237</v>
+        <v>84.03350630819216</v>
       </c>
       <c r="K44" t="n">
-        <v>205.59032168456</v>
+        <v>205.5903216845597</v>
       </c>
       <c r="L44" t="n">
-        <v>380.3784451554881</v>
+        <v>380.3784451554878</v>
       </c>
       <c r="M44" t="n">
-        <v>595.4490449214285</v>
+        <v>595.449044921428</v>
       </c>
       <c r="N44" t="n">
         <v>816.9986872872126</v>
@@ -7666,34 +7666,34 @@
         <v>1017.53381235417</v>
       </c>
       <c r="P44" t="n">
-        <v>1166.260251496407</v>
+        <v>1166.260251496406</v>
       </c>
       <c r="Q44" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R44" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S44" t="n">
-        <v>1128.226406357361</v>
+        <v>1128.22640635736</v>
       </c>
       <c r="T44" t="n">
-        <v>913.96674882814</v>
+        <v>913.9667488281393</v>
       </c>
       <c r="U44" t="n">
-        <v>658.3829000378178</v>
+        <v>658.3829000378171</v>
       </c>
       <c r="V44" t="n">
-        <v>658.3829000378178</v>
+        <v>658.3829000378171</v>
       </c>
       <c r="W44" t="n">
-        <v>658.3829000378178</v>
+        <v>658.3829000378171</v>
       </c>
       <c r="X44" t="n">
-        <v>658.3829000378178</v>
+        <v>343.5759989923989</v>
       </c>
       <c r="Y44" t="n">
-        <v>658.3829000378178</v>
+        <v>28.76909794698065</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>300.0187431195731</v>
+        <v>695.9836492885712</v>
       </c>
       <c r="C45" t="n">
-        <v>149.3645126796653</v>
+        <v>545.3294188486634</v>
       </c>
       <c r="D45" t="n">
-        <v>149.3645126796653</v>
+        <v>415.2404514701438</v>
       </c>
       <c r="E45" t="n">
-        <v>149.3645126796653</v>
+        <v>278.7939605810315</v>
       </c>
       <c r="F45" t="n">
-        <v>24.93270656279714</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="G45" t="n">
-        <v>24.93270656279714</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="H45" t="n">
-        <v>24.93270656279714</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="I45" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="J45" t="n">
-        <v>47.90113748809809</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K45" t="n">
-        <v>137.9584803684911</v>
+        <v>354.9714874340805</v>
       </c>
       <c r="L45" t="n">
-        <v>289.161343388425</v>
+        <v>506.1743504540144</v>
       </c>
       <c r="M45" t="n">
-        <v>478.1899170663531</v>
+        <v>695.2029241319425</v>
       </c>
       <c r="N45" t="n">
-        <v>681.587133812696</v>
+        <v>898.6001408782854</v>
       </c>
       <c r="O45" t="n">
-        <v>853.2129833847317</v>
+        <v>1070.225990450321</v>
       </c>
       <c r="P45" t="n">
-        <v>978.3913654103343</v>
+        <v>1195.404372475924</v>
       </c>
       <c r="Q45" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R45" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S45" t="n">
-        <v>1246.635328139857</v>
+        <v>1132.68442792793</v>
       </c>
       <c r="T45" t="n">
-        <v>1074.204152693018</v>
+        <v>1132.68442792793</v>
       </c>
       <c r="U45" t="n">
-        <v>1042.976373763948</v>
+        <v>1132.68442792793</v>
       </c>
       <c r="V45" t="n">
-        <v>820.4363721350155</v>
+        <v>1132.68442792793</v>
       </c>
       <c r="W45" t="n">
-        <v>820.4363721350155</v>
+        <v>902.5671820612172</v>
       </c>
       <c r="X45" t="n">
-        <v>631.1292944850272</v>
+        <v>902.5671820612172</v>
       </c>
       <c r="Y45" t="n">
-        <v>451.8150775605345</v>
+        <v>723.2529651367245</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.93270656279714</v>
+        <v>320.9045239793587</v>
       </c>
       <c r="C46" t="n">
-        <v>24.93270656279714</v>
+        <v>320.9045239793587</v>
       </c>
       <c r="D46" t="n">
-        <v>24.93270656279714</v>
+        <v>165.2714108818735</v>
       </c>
       <c r="E46" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="F46" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="G46" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="H46" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="I46" t="n">
-        <v>24.93270656279714</v>
+        <v>24.93270656279712</v>
       </c>
       <c r="J46" t="n">
-        <v>60.77439242645067</v>
+        <v>60.77439242645065</v>
       </c>
       <c r="K46" t="n">
-        <v>179.7277543517022</v>
+        <v>250.4357387611248</v>
       </c>
       <c r="L46" t="n">
-        <v>230.9100125548093</v>
+        <v>301.6179969642318</v>
       </c>
       <c r="M46" t="n">
-        <v>539.4522562694239</v>
+        <v>610.1602406788462</v>
       </c>
       <c r="N46" t="n">
-        <v>847.9944999840384</v>
+        <v>670.0165173732089</v>
       </c>
       <c r="O46" t="n">
-        <v>1141.879501269419</v>
+        <v>933.3753648872134</v>
       </c>
       <c r="P46" t="n">
-        <v>1165.498883145001</v>
+        <v>1165.498883145</v>
       </c>
       <c r="Q46" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R46" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="S46" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T46" t="n">
-        <v>1093.709917261976</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U46" t="n">
-        <v>808.3227760278122</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="V46" t="n">
-        <v>542.3434308486364</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="W46" t="n">
-        <v>259.013028779814</v>
+        <v>963.3049260710336</v>
       </c>
       <c r="X46" t="n">
-        <v>24.93270656279714</v>
+        <v>729.2246038540167</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.93270656279714</v>
+        <v>506.11254267066</v>
       </c>
     </row>
   </sheetData>
@@ -8221,10 +8221,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L5" t="n">
-        <v>56.43396646106821</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M5" t="n">
-        <v>42.0005963606051</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N5" t="n">
         <v>39.65094179247474</v>
@@ -8233,7 +8233,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P5" t="n">
-        <v>62.08001639703512</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q5" t="n">
         <v>78.24807792626756</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>51.43211845760856</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K6" t="n">
-        <v>36.59190862205907</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L6" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M6" t="n">
-        <v>9.21629354317848</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P6" t="n">
-        <v>24.40218892352033</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q6" t="n">
         <v>49.08744703089221</v>
@@ -8379,7 +8379,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L7" t="n">
-        <v>46.76134641422897</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M7" t="n">
         <v>47.16400664275908</v>
@@ -8388,10 +8388,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O7" t="n">
-        <v>51.09947095584661</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P7" t="n">
-        <v>56.23986070246485</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q7" t="n">
         <v>75.43459031707346</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.84024364032009</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K8" t="n">
-        <v>56.37184468858106</v>
+        <v>56.37184468858105</v>
       </c>
       <c r="L8" t="n">
         <v>45.70582857298459</v>
       </c>
       <c r="M8" t="n">
-        <v>30.06347586924086</v>
+        <v>30.06347586924085</v>
       </c>
       <c r="N8" t="n">
         <v>27.52066621168497</v>
@@ -8473,7 +8473,7 @@
         <v>52.30405746936195</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.90673990138414</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R8" t="n">
         <v>97.3227064959341</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.934500038118188</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P9" t="n">
         <v>17.4563868068005</v>
@@ -8628,7 +8628,7 @@
         <v>46.78920077959938</v>
       </c>
       <c r="P10" t="n">
-        <v>52.55167994450286</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q10" t="n">
         <v>72.88108513355061</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.850944358056068</v>
+        <v>8.85094435805604</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4567616203298</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.9286673683642</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14.52809425196619</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8850,16 +8850,16 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>95.09806902349322</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>255.0099442044023</v>
+        <v>255.0099442044025</v>
       </c>
       <c r="N13" t="n">
-        <v>251.1979464851026</v>
+        <v>8.271210651422706</v>
       </c>
       <c r="O13" t="n">
         <v>254.3449995307766</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.850944358056068</v>
+        <v>8.85094435805604</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4567616203311</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>219.2050576420091</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>25.26550888398138</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,19 +9093,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>255.0099442044026</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>251.1979464851027</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>55.81796913159455</v>
       </c>
       <c r="P16" t="n">
-        <v>8.271210651423118</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97901002398311</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.850944358056068</v>
+        <v>8.85094435805604</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>185.2160219080928</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>33.98903573391679</v>
       </c>
       <c r="R18" t="n">
-        <v>47.76855139495378</v>
+        <v>25.26550888398138</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.26881336884887</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>255.0099442044026</v>
+        <v>221.453779503301</v>
       </c>
       <c r="N19" t="n">
-        <v>251.1979464851029</v>
+        <v>251.1979464851028</v>
       </c>
       <c r="O19" t="n">
-        <v>8.516277381307788</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>173.4567616203306</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>219.2050576420095</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>25.2655088839814</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>182.9227930566122</v>
       </c>
       <c r="M22" t="n">
-        <v>255.0099442044025</v>
+        <v>255.0099442044024</v>
       </c>
       <c r="N22" t="n">
         <v>251.1979464851028</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>182.9227930566124</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>101.9350150692923</v>
@@ -9719,10 +9719,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>22.50304251097228</v>
       </c>
       <c r="L24" t="n">
-        <v>22.50304251097182</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.26881336884887</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>182.9227930566124</v>
       </c>
       <c r="M25" t="n">
-        <v>255.0099442044024</v>
+        <v>255.0099442044026</v>
       </c>
       <c r="N25" t="n">
-        <v>251.1979464851028</v>
+        <v>251.1979464851029</v>
       </c>
       <c r="O25" t="n">
-        <v>8.51627738130756</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>101.9350150692923</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.26881336884887</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>131.301792118093</v>
+        <v>138.8328297843659</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>251.1979464851028</v>
       </c>
       <c r="O28" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q28" t="n">
         <v>101.9350150692923</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.73588279539479</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>120.7208788249357</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.50304251097161</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>25.2655088839814</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.18744750406006</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>255.0099442044025</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>251.1979464851028</v>
       </c>
       <c r="O31" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>177.0540740688025</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398311</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>173.4567616203304</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>219.2050576420095</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>25.2655088839814</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.4725364634484</v>
+        <v>16.26881336884887</v>
       </c>
       <c r="K34" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>255.0099442044025</v>
       </c>
       <c r="N34" t="n">
-        <v>52.67091608592077</v>
+        <v>251.1979464851028</v>
       </c>
       <c r="O34" t="n">
-        <v>254.3449995307766</v>
+        <v>3.532023519449723</v>
       </c>
       <c r="P34" t="n">
         <v>210.6102387699041</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.50304251097161</v>
       </c>
       <c r="R36" t="n">
-        <v>47.76855139495309</v>
+        <v>25.2655088839814</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.26881336884887</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>213.2577971634022</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>255.0099442044024</v>
+        <v>255.0099442044025</v>
       </c>
       <c r="N37" t="n">
         <v>251.1979464851028</v>
@@ -10761,7 +10761,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>177.0540740688025</v>
       </c>
       <c r="Q37" t="n">
         <v>19.97901002398311</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>22.50304251097214</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.2655088839814</v>
+        <v>47.76855139495309</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>177.0540740688028</v>
+        <v>95.09806902349351</v>
       </c>
       <c r="M40" t="n">
-        <v>255.0099442044026</v>
+        <v>255.0099442044024</v>
       </c>
       <c r="N40" t="n">
-        <v>251.1979464851029</v>
+        <v>251.1979464851028</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.97901002398311</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.4567616203308</v>
+        <v>219.2050576420099</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>25.2655088839814</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>16.26881336884887</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>255.0099442044026</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>251.1979464851029</v>
@@ -11235,10 +11235,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>10.5337985711448</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.97901002398311</v>
+        <v>68.26594148930519</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.850944358056068</v>
+        <v>8.850944358056125</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>22.50304251097178</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.4567616203308</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>25.26550888398141</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>95.09806902349374</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>255.0099442044026</v>
+        <v>255.0099442044024</v>
       </c>
       <c r="N46" t="n">
-        <v>251.1979464851029</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>254.3449995307766</v>
+        <v>223.5105007718107</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -22798,7 +22798,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>8.417632379864196</v>
+        <v>8.417632379864187</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.349649946278443</v>
+        <v>8.349649946278419</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>319.1946791930311</v>
       </c>
       <c r="E11" t="n">
-        <v>86.89885759965699</v>
+        <v>86.89885759965671</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>101.0666620503578</v>
       </c>
       <c r="G11" t="n">
         <v>406.9412283652723</v>
@@ -23278,7 +23278,7 @@
         <v>299.4390357366541</v>
       </c>
       <c r="I11" t="n">
-        <v>56.38289173312509</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>117.2248325646711</v>
       </c>
       <c r="T11" t="n">
-        <v>190.6359719999514</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V11" t="n">
-        <v>27.02690916855289</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>55.63021264643152</v>
+        <v>55.63021264643123</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23354,10 +23354,10 @@
         <v>117.7410248871764</v>
       </c>
       <c r="H12" t="n">
-        <v>76.61503396604265</v>
+        <v>43.65169612178189</v>
       </c>
       <c r="I12" t="n">
-        <v>10.39412853517615</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>37.37678728686668</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,13 +23424,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>140.4405962296997</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6340563521181</v>
+        <v>163.630649542264</v>
       </c>
       <c r="H13" t="n">
         <v>145.5889204806361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,16 +23497,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>114.7346472257022</v>
+        <v>77.58491444713462</v>
       </c>
       <c r="D14" t="n">
-        <v>69.9278854605347</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>86.89885759965665</v>
+        <v>86.89885759965682</v>
       </c>
       <c r="F14" t="n">
-        <v>101.0666620503578</v>
+        <v>101.0666620503579</v>
       </c>
       <c r="G14" t="n">
         <v>406.9412283652723</v>
@@ -23515,7 +23515,7 @@
         <v>299.4390357366541</v>
       </c>
       <c r="I14" t="n">
-        <v>56.38289173312509</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>212.1170609539285</v>
       </c>
       <c r="U14" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23560,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>364.0769900622965</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>73.96664293731843</v>
+        <v>118.9699822976651</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23658,7 +23658,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23667,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6340563521181</v>
+        <v>139.8404193231701</v>
       </c>
       <c r="H16" t="n">
         <v>145.5889204806361</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>111.1817948192862</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>86.89885759965671</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>406.9412283652723</v>
+        <v>95.28239633030813</v>
       </c>
       <c r="H17" t="n">
         <v>299.4390357366541</v>
       </c>
       <c r="I17" t="n">
-        <v>56.38289173312509</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>117.2248325646711</v>
+        <v>111.2156859953282</v>
       </c>
       <c r="T17" t="n">
-        <v>212.1170609539285</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V17" t="n">
-        <v>27.02690916855255</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W17" t="n">
-        <v>55.63021264643118</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89924698130949</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.0447130346275</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>110.6254120925205</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>38.08824650041824</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.39412853517615</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>207.8889464367184</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -23904,13 +23904,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6340563521181</v>
+        <v>35.13224550156451</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.4506040058318</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.891703428864</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.9806989978865</v>
+        <v>84.83096621931884</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U20" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.02690916855266</v>
+        <v>122.7706527792466</v>
       </c>
       <c r="W20" t="n">
-        <v>55.63021264643129</v>
+        <v>55.63021264643135</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8992469813096</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>84.68864975098646</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.39412853517615</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>208.2683275389426</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>80.51050339515963</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>77.96020641314215</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>111.1817948192867</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>86.89885759965682</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>101.0666620503579</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>132.432129108876</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H23" t="n">
         <v>299.4390357366541</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.1170609539285</v>
@@ -24265,16 +24265,16 @@
         <v>253.028010302419</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>181.4014745117915</v>
       </c>
       <c r="W23" t="n">
-        <v>55.63021264643135</v>
+        <v>55.63021264643123</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130955</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364071</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>51.56986653836852</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>101.4765763496589</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T24" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.0006602903548</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>184.4506040058318</v>
       </c>
       <c r="T25" t="n">
-        <v>229.3563631822438</v>
+        <v>176.0004074292708</v>
       </c>
       <c r="U25" t="n">
         <v>282.5332698218218</v>
@@ -24426,10 +24426,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.83096621931884</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24457,7 +24457,7 @@
         <v>101.0666620503579</v>
       </c>
       <c r="G26" t="n">
-        <v>385.4601394112951</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H26" t="n">
         <v>299.4390357366541</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130966</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>371.0447130346277</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>142.8484710489541</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>59.3731138023164</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -24542,7 +24542,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I27" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T27" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6340563521181</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>86.94390637282524</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>80.51050339515963</v>
       </c>
       <c r="S28" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.148838050868948</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5332698218218</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>101.0666620503579</v>
       </c>
       <c r="G29" t="n">
         <v>406.9412283652723</v>
       </c>
       <c r="H29" t="n">
-        <v>299.4390357366541</v>
+        <v>24.92993648025782</v>
       </c>
       <c r="I29" t="n">
         <v>56.38289173312509</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>95.7437436106939</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T29" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V29" t="n">
         <v>27.02690916855272</v>
@@ -24745,7 +24745,7 @@
         <v>55.63021264643135</v>
       </c>
       <c r="X29" t="n">
-        <v>73.89924698130966</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>90.53555652614193</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.39412853517615</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T30" t="n">
-        <v>150.2784555652165</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24858,7 +24858,7 @@
         <v>145.5889204806361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.51050339515963</v>
       </c>
       <c r="S31" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>30.67129142412711</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.7728151673706</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>101.0666620503579</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>95.28239633030823</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H32" t="n">
         <v>299.4390357366541</v>
       </c>
       <c r="I32" t="n">
-        <v>52.5848642627833</v>
+        <v>56.38289173312509</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>190.6359719999513</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855272</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>55.63021264643135</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130966</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24998,19 +24998,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>76.61503396604265</v>
@@ -25049,22 +25049,22 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T33" t="n">
-        <v>12.64000093253352</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>72.6742926457065</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>87.66978437376817</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5332698218218</v>
+        <v>77.96020641314212</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>348.0855257834342</v>
       </c>
       <c r="G35" t="n">
-        <v>406.9412283652723</v>
+        <v>95.28239633030825</v>
       </c>
       <c r="H35" t="n">
         <v>299.4390357366541</v>
       </c>
       <c r="I35" t="n">
-        <v>56.38289173312509</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>117.2248325646711</v>
       </c>
       <c r="T35" t="n">
-        <v>212.1170609539285</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>64.17664194712057</v>
+        <v>27.02690916855272</v>
       </c>
       <c r="W35" t="n">
-        <v>55.63021264643135</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>73.89924698130966</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.86696995364082</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -25244,10 +25244,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>95.45693632913631</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T36" t="n">
-        <v>9.405084050373542</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25317,13 +25317,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>111.1443856475504</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>165.6340563521181</v>
@@ -25362,10 +25362,10 @@
         <v>80.51050339515963</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T37" t="n">
-        <v>229.3563631822438</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>77.96020641314206</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25402,13 +25402,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>101.0666620503578</v>
+        <v>101.0666620503579</v>
       </c>
       <c r="G38" t="n">
-        <v>95.28239633030812</v>
+        <v>95.28239633030825</v>
       </c>
       <c r="H38" t="n">
-        <v>299.4390357366541</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>56.38289173312509</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V38" t="n">
-        <v>334.8877137331748</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>292.6772100806177</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>69.74921064820917</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>117.7410248871764</v>
@@ -25523,13 +25523,13 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T39" t="n">
-        <v>132.4543425137773</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.51050339515963</v>
+        <v>43.94821778433918</v>
       </c>
       <c r="S40" t="n">
-        <v>30.67129142412674</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.83096621931873</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>86.89885759965671</v>
       </c>
       <c r="F41" t="n">
-        <v>101.0666620503578</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>95.28239633030812</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H41" t="n">
-        <v>81.3128282133828</v>
+        <v>299.4390357366541</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>56.38289173312509</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.1170609539285</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>381.7600515459317</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>27.11992256063053</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8889464367184</v>
+        <v>130.2524427281492</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.51050339515963</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.4506040058318</v>
@@ -25845,16 +25845,16 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V43" t="n">
-        <v>111.2072561744266</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>278.9168249839631</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>101.0666620503578</v>
+        <v>408.9274666149803</v>
       </c>
       <c r="G44" t="n">
-        <v>147.8672605930912</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H44" t="n">
         <v>299.4390357366541</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>56.38289173312512</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130972</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364088</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>123.28174840688</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>76.61503396604265</v>
       </c>
       <c r="I45" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U45" t="n">
-        <v>176.9734452969397</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>15.06790674350395</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.51050339515963</v>
+        <v>80.51050339515965</v>
       </c>
       <c r="S46" t="n">
         <v>184.4506040058318</v>
       </c>
       <c r="T46" t="n">
-        <v>77.96020641314169</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425671.3656207831</v>
+        <v>425671.3656207832</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425671.3656207832</v>
+        <v>425671.3656207831</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425671.3656207831</v>
+        <v>425671.3656207833</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425671.3656207831</v>
+        <v>425671.3656207832</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>425671.3656207834</v>
+        <v>425671.3656207831</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425671.3656207832</v>
+        <v>425671.3656207833</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425671.3656207832</v>
+        <v>425671.365620783</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>413768.209023849</v>
+        <v>413768.2090238492</v>
       </c>
       <c r="C2" t="n">
-        <v>413796.288716409</v>
+        <v>413796.2887164092</v>
       </c>
       <c r="D2" t="n">
-        <v>413799.4002723944</v>
+        <v>413799.4002723943</v>
       </c>
       <c r="E2" t="n">
+        <v>201264.1259505822</v>
+      </c>
+      <c r="F2" t="n">
         <v>201264.1259505821</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201264.1259505822</v>
       </c>
       <c r="G2" t="n">
         <v>201264.1259505822</v>
       </c>
       <c r="H2" t="n">
+        <v>201264.1259505821</v>
+      </c>
+      <c r="I2" t="n">
         <v>201264.1259505822</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>201264.1259505821</v>
-      </c>
-      <c r="J2" t="n">
-        <v>201264.125950582</v>
       </c>
       <c r="K2" t="n">
         <v>201264.1259505821</v>
@@ -26346,16 +26346,16 @@
         <v>201264.1259505821</v>
       </c>
       <c r="M2" t="n">
-        <v>201264.125950582</v>
+        <v>201264.1259505822</v>
       </c>
       <c r="N2" t="n">
-        <v>201264.1259505822</v>
+        <v>201264.1259505821</v>
       </c>
       <c r="O2" t="n">
         <v>201264.1259505822</v>
       </c>
       <c r="P2" t="n">
-        <v>201264.1259505821</v>
+        <v>201264.125950582</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>14482.50058438103</v>
       </c>
       <c r="E3" t="n">
-        <v>374522.5889583015</v>
+        <v>374522.5889583016</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77666.62757844114</v>
+        <v>77666.62757844118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>342029.698628</v>
       </c>
       <c r="E4" t="n">
+        <v>14662.75497626374</v>
+      </c>
+      <c r="F4" t="n">
         <v>14662.75497626372</v>
       </c>
-      <c r="F4" t="n">
-        <v>14662.75497626375</v>
-      </c>
       <c r="G4" t="n">
-        <v>14662.75497626375</v>
+        <v>14662.75497626374</v>
       </c>
       <c r="H4" t="n">
         <v>14662.75497626374</v>
       </c>
       <c r="I4" t="n">
-        <v>14662.75497626374</v>
+        <v>14662.75497626375</v>
       </c>
       <c r="J4" t="n">
         <v>14662.75497626373</v>
       </c>
       <c r="K4" t="n">
-        <v>14662.75497626374</v>
+        <v>14662.75497626373</v>
       </c>
       <c r="L4" t="n">
         <v>14662.75497626373</v>
@@ -26453,13 +26453,13 @@
         <v>14662.75497626373</v>
       </c>
       <c r="N4" t="n">
-        <v>14662.75497626375</v>
+        <v>14662.75497626374</v>
       </c>
       <c r="O4" t="n">
         <v>14662.75497626375</v>
       </c>
       <c r="P4" t="n">
-        <v>14662.75497626375</v>
+        <v>14662.75497626373</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>37323.08488197248</v>
       </c>
       <c r="E5" t="n">
-        <v>30281.85999809942</v>
+        <v>30281.85999809944</v>
       </c>
       <c r="F5" t="n">
-        <v>30281.85999809944</v>
+        <v>30281.85999809943</v>
       </c>
       <c r="G5" t="n">
         <v>30281.85999809944</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4916.792466070154</v>
+        <v>-4921.122033856457</v>
       </c>
       <c r="C6" t="n">
-        <v>-108248.9909750366</v>
+        <v>-108253.198457203</v>
       </c>
       <c r="D6" t="n">
-        <v>19964.11617804086</v>
+        <v>19959.92222437844</v>
       </c>
       <c r="E6" t="n">
-        <v>-218203.0779820825</v>
+        <v>-219131.3383458397</v>
       </c>
       <c r="F6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="G6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124619</v>
       </c>
       <c r="H6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="I6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124619</v>
       </c>
       <c r="J6" t="n">
-        <v>156319.5109762189</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="K6" t="n">
-        <v>156319.5109762189</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="L6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="M6" t="n">
-        <v>78652.88339777772</v>
+        <v>77724.62303402067</v>
       </c>
       <c r="N6" t="n">
-        <v>156319.510976219</v>
+        <v>155391.2506124618</v>
       </c>
       <c r="O6" t="n">
-        <v>156319.5109762191</v>
+        <v>155391.2506124619</v>
       </c>
       <c r="P6" t="n">
-        <v>156319.5109762189</v>
+        <v>155391.2506124618</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>169.5176551363521</v>
       </c>
       <c r="E3" t="n">
-        <v>519.8625234116337</v>
+        <v>519.8625234116338</v>
       </c>
       <c r="F3" t="n">
-        <v>519.8625234116337</v>
+        <v>519.8625234116338</v>
       </c>
       <c r="G3" t="n">
-        <v>519.8625234116337</v>
+        <v>519.8625234116338</v>
       </c>
       <c r="H3" t="n">
         <v>519.8625234116337</v>
@@ -26779,7 +26779,7 @@
         <v>519.8625234116337</v>
       </c>
       <c r="P3" t="n">
-        <v>519.8625234116337</v>
+        <v>519.8625234116336</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="F4" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="G4" t="n">
         <v>311.6588320349642</v>
@@ -26810,7 +26810,7 @@
         <v>311.6588320349641</v>
       </c>
       <c r="I4" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="J4" t="n">
         <v>311.6588320349641</v>
@@ -26825,13 +26825,13 @@
         <v>311.6588320349641</v>
       </c>
       <c r="N4" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="O4" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="P4" t="n">
-        <v>311.6588320349642</v>
+        <v>311.658832034964</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>16.91063035445595</v>
       </c>
       <c r="E3" t="n">
-        <v>350.3448682752815</v>
+        <v>350.3448682752816</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I6" t="n">
-        <v>37.59182348086898</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -31278,22 +31278,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6134955770126477</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H5" t="n">
-        <v>6.28296157808078</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I5" t="n">
-        <v>23.65178823278012</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J5" t="n">
-        <v>52.06967022947725</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K5" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L5" t="n">
-        <v>96.81420326942349</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M5" t="n">
         <v>107.7244552371222</v>
@@ -31305,7 +31305,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P5" t="n">
-        <v>88.22143084389008</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q5" t="n">
         <v>66.25062049212461</v>
@@ -31369,16 +31369,16 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K6" t="n">
-        <v>53.00502671127428</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L6" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M6" t="n">
-        <v>83.17082850613343</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416664</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>78.09880446550495</v>
@@ -31393,7 +31393,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S6" t="n">
-        <v>6.097082546710661</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T6" t="n">
         <v>1.323074111080779</v>
@@ -31451,7 +31451,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L7" t="n">
-        <v>40.91369316857592</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M7" t="n">
         <v>43.13775292318419</v>
@@ -31460,10 +31460,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O7" t="n">
-        <v>38.8972790378512</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P7" t="n">
-        <v>33.28334192948109</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q7" t="n">
         <v>23.04366074206633</v>
@@ -31472,7 +31472,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S7" t="n">
-        <v>4.795863385358933</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T7" t="n">
         <v>1.175824617171987</v>
@@ -31518,16 +31518,16 @@
         <v>0.6814780105984001</v>
       </c>
       <c r="H8" t="n">
-        <v>6.979186676040866</v>
+        <v>6.979186676040867</v>
       </c>
       <c r="I8" t="n">
-        <v>26.27268100359484</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J8" t="n">
         <v>57.83959430202601</v>
       </c>
       <c r="K8" t="n">
-        <v>86.6865584906563</v>
+        <v>86.68655849065631</v>
       </c>
       <c r="L8" t="n">
         <v>107.5423411575071</v>
@@ -31545,7 +31545,7 @@
         <v>97.99738977156325</v>
       </c>
       <c r="Q8" t="n">
-        <v>73.59195851700802</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R8" t="n">
         <v>42.80789308325178</v>
@@ -31618,7 +31618,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>86.7530588507707</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P9" t="n">
         <v>69.62697801251416</v>
@@ -31630,10 +31630,10 @@
         <v>22.63860307651134</v>
       </c>
       <c r="S9" t="n">
-        <v>6.772710089645763</v>
+        <v>6.772710089645764</v>
       </c>
       <c r="T9" t="n">
-        <v>1.469686085568939</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U9" t="n">
         <v>0.0239883474249555</v>
@@ -31697,7 +31697,7 @@
         <v>46.77853588377405</v>
       </c>
       <c r="O10" t="n">
-        <v>43.20754921409842</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P10" t="n">
         <v>36.97152268744308</v>
@@ -31706,7 +31706,7 @@
         <v>25.59716592558917</v>
       </c>
       <c r="R10" t="n">
-        <v>13.74482495580979</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S10" t="n">
         <v>5.327300736006343</v>
@@ -31755,46 +31755,46 @@
         <v>2.089899591604556</v>
       </c>
       <c r="H11" t="n">
-        <v>21.40318419252016</v>
+        <v>21.40318419252017</v>
       </c>
       <c r="I11" t="n">
-        <v>80.57085400533472</v>
+        <v>80.57085400533474</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3776154629473</v>
+        <v>177.3776154629474</v>
       </c>
       <c r="K11" t="n">
         <v>265.8430651755683</v>
       </c>
       <c r="L11" t="n">
-        <v>329.8018298021362</v>
+        <v>329.8018298021363</v>
       </c>
       <c r="M11" t="n">
-        <v>366.9680816643337</v>
+        <v>366.9680816643338</v>
       </c>
       <c r="N11" t="n">
-        <v>372.9060088789802</v>
+        <v>372.9060088789803</v>
       </c>
       <c r="O11" t="n">
-        <v>352.1245698149624</v>
+        <v>352.1245698149625</v>
       </c>
       <c r="P11" t="n">
-        <v>300.5301736472249</v>
+        <v>300.530173647225</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6856445228866</v>
+        <v>225.6856445228867</v>
       </c>
       <c r="R11" t="n">
         <v>131.2796552211298</v>
       </c>
       <c r="S11" t="n">
-        <v>47.62358694368886</v>
+        <v>47.62358694368888</v>
       </c>
       <c r="T11" t="n">
-        <v>9.148535462248947</v>
+        <v>9.148535462248951</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1671919673283644</v>
+        <v>0.1671919673283645</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>10.79940826936243</v>
       </c>
       <c r="I12" t="n">
-        <v>38.49925291303137</v>
+        <v>38.49925291303138</v>
       </c>
       <c r="J12" t="n">
         <v>105.6448926114151</v>
       </c>
       <c r="K12" t="n">
-        <v>180.5639483438313</v>
+        <v>180.5639483438314</v>
       </c>
       <c r="L12" t="n">
         <v>242.7905115235182</v>
       </c>
       <c r="M12" t="n">
-        <v>283.3250752593403</v>
+        <v>283.3250752593404</v>
       </c>
       <c r="N12" t="n">
         <v>290.8238469413818</v>
       </c>
       <c r="O12" t="n">
-        <v>266.0470029010461</v>
+        <v>266.0470029010462</v>
       </c>
       <c r="P12" t="n">
-        <v>213.5261749461859</v>
+        <v>213.526174946186</v>
       </c>
       <c r="Q12" t="n">
         <v>142.7365932204924</v>
       </c>
       <c r="R12" t="n">
-        <v>69.42616869259518</v>
+        <v>69.4261686925952</v>
       </c>
       <c r="S12" t="n">
-        <v>20.76997911932327</v>
+        <v>20.76997911932328</v>
       </c>
       <c r="T12" t="n">
-        <v>4.507109990710294</v>
+        <v>4.507109990710295</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07356545142617461</v>
+        <v>0.07356545142617463</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9374570094308147</v>
+        <v>0.9374570094308149</v>
       </c>
       <c r="H13" t="n">
-        <v>8.334845047484887</v>
+        <v>8.334845047484889</v>
       </c>
       <c r="I13" t="n">
-        <v>28.19188897451942</v>
+        <v>28.19188897451943</v>
       </c>
       <c r="J13" t="n">
-        <v>66.2782105667586</v>
+        <v>66.27821056675862</v>
       </c>
       <c r="K13" t="n">
         <v>108.9154598229619</v>
@@ -31940,19 +31940,19 @@
         <v>113.3811641224323</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.49924103515669</v>
+        <v>78.4992410351567</v>
       </c>
       <c r="R13" t="n">
-        <v>42.15147607858917</v>
+        <v>42.15147607858918</v>
       </c>
       <c r="S13" t="n">
-        <v>16.33731897344428</v>
+        <v>16.33731897344429</v>
       </c>
       <c r="T13" t="n">
-        <v>4.005498131204389</v>
+        <v>4.00549813120439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05113401869622632</v>
+        <v>0.05113401869622633</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>2.089899591604556</v>
       </c>
       <c r="H14" t="n">
-        <v>21.40318419252016</v>
+        <v>21.40318419252017</v>
       </c>
       <c r="I14" t="n">
-        <v>80.57085400533472</v>
+        <v>80.57085400533474</v>
       </c>
       <c r="J14" t="n">
-        <v>177.3776154629473</v>
+        <v>177.3776154629474</v>
       </c>
       <c r="K14" t="n">
         <v>265.8430651755683</v>
       </c>
       <c r="L14" t="n">
-        <v>329.8018298021362</v>
+        <v>329.8018298021363</v>
       </c>
       <c r="M14" t="n">
-        <v>366.9680816643337</v>
+        <v>366.9680816643338</v>
       </c>
       <c r="N14" t="n">
-        <v>372.9060088789802</v>
+        <v>372.9060088789803</v>
       </c>
       <c r="O14" t="n">
-        <v>352.1245698149624</v>
+        <v>352.1245698149625</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5301736472249</v>
+        <v>300.530173647225</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6856445228866</v>
+        <v>225.6856445228867</v>
       </c>
       <c r="R14" t="n">
         <v>131.2796552211298</v>
       </c>
       <c r="S14" t="n">
-        <v>47.62358694368886</v>
+        <v>47.62358694368888</v>
       </c>
       <c r="T14" t="n">
-        <v>9.148535462248947</v>
+        <v>9.148535462248951</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1671919673283644</v>
+        <v>0.1671919673283645</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.79940826936243</v>
       </c>
       <c r="I15" t="n">
-        <v>38.49925291303137</v>
+        <v>38.49925291303138</v>
       </c>
       <c r="J15" t="n">
         <v>105.6448926114151</v>
       </c>
       <c r="K15" t="n">
-        <v>180.5639483438313</v>
+        <v>180.5639483438314</v>
       </c>
       <c r="L15" t="n">
         <v>242.7905115235182</v>
       </c>
       <c r="M15" t="n">
-        <v>283.3250752593403</v>
+        <v>283.3250752593404</v>
       </c>
       <c r="N15" t="n">
         <v>290.8238469413818</v>
       </c>
       <c r="O15" t="n">
-        <v>266.0470029010461</v>
+        <v>266.0470029010462</v>
       </c>
       <c r="P15" t="n">
-        <v>213.5261749461859</v>
+        <v>213.526174946186</v>
       </c>
       <c r="Q15" t="n">
         <v>142.7365932204924</v>
       </c>
       <c r="R15" t="n">
-        <v>69.42616869259518</v>
+        <v>69.4261686925952</v>
       </c>
       <c r="S15" t="n">
-        <v>20.76997911932327</v>
+        <v>20.76997911932328</v>
       </c>
       <c r="T15" t="n">
-        <v>4.507109990710294</v>
+        <v>4.507109990710295</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07356545142617461</v>
+        <v>0.07356545142617463</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9374570094308147</v>
+        <v>0.9374570094308149</v>
       </c>
       <c r="H16" t="n">
-        <v>8.334845047484887</v>
+        <v>8.334845047484889</v>
       </c>
       <c r="I16" t="n">
-        <v>28.19188897451942</v>
+        <v>28.19188897451943</v>
       </c>
       <c r="J16" t="n">
-        <v>66.2782105667586</v>
+        <v>66.27821056675862</v>
       </c>
       <c r="K16" t="n">
         <v>108.9154598229619</v>
@@ -32177,19 +32177,19 @@
         <v>113.3811641224323</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.49924103515669</v>
+        <v>78.4992410351567</v>
       </c>
       <c r="R16" t="n">
-        <v>42.15147607858917</v>
+        <v>42.15147607858918</v>
       </c>
       <c r="S16" t="n">
-        <v>16.33731897344428</v>
+        <v>16.33731897344429</v>
       </c>
       <c r="T16" t="n">
-        <v>4.005498131204389</v>
+        <v>4.00549813120439</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05113401869622632</v>
+        <v>0.05113401869622633</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>2.089899591604556</v>
       </c>
       <c r="H17" t="n">
-        <v>21.40318419252016</v>
+        <v>21.40318419252017</v>
       </c>
       <c r="I17" t="n">
-        <v>80.57085400533472</v>
+        <v>80.57085400533474</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3776154629473</v>
+        <v>177.3776154629474</v>
       </c>
       <c r="K17" t="n">
         <v>265.8430651755683</v>
       </c>
       <c r="L17" t="n">
-        <v>329.8018298021362</v>
+        <v>329.8018298021363</v>
       </c>
       <c r="M17" t="n">
-        <v>366.9680816643337</v>
+        <v>366.9680816643338</v>
       </c>
       <c r="N17" t="n">
-        <v>372.9060088789802</v>
+        <v>372.9060088789803</v>
       </c>
       <c r="O17" t="n">
-        <v>352.1245698149624</v>
+        <v>352.1245698149625</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5301736472249</v>
+        <v>300.530173647225</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6856445228866</v>
+        <v>225.6856445228867</v>
       </c>
       <c r="R17" t="n">
         <v>131.2796552211298</v>
       </c>
       <c r="S17" t="n">
-        <v>47.62358694368886</v>
+        <v>47.62358694368888</v>
       </c>
       <c r="T17" t="n">
-        <v>9.148535462248947</v>
+        <v>9.148535462248951</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671919673283644</v>
+        <v>0.1671919673283645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.79940826936243</v>
       </c>
       <c r="I18" t="n">
-        <v>38.49925291303137</v>
+        <v>38.49925291303138</v>
       </c>
       <c r="J18" t="n">
         <v>105.6448926114151</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5639483438313</v>
+        <v>180.5639483438314</v>
       </c>
       <c r="L18" t="n">
         <v>242.7905115235182</v>
       </c>
       <c r="M18" t="n">
-        <v>283.3250752593403</v>
+        <v>283.3250752593404</v>
       </c>
       <c r="N18" t="n">
         <v>290.8238469413818</v>
       </c>
       <c r="O18" t="n">
-        <v>266.0470029010461</v>
+        <v>266.0470029010462</v>
       </c>
       <c r="P18" t="n">
-        <v>213.5261749461859</v>
+        <v>213.526174946186</v>
       </c>
       <c r="Q18" t="n">
         <v>142.7365932204924</v>
       </c>
       <c r="R18" t="n">
-        <v>69.42616869259518</v>
+        <v>69.4261686925952</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76997911932327</v>
+        <v>20.76997911932328</v>
       </c>
       <c r="T18" t="n">
-        <v>4.507109990710294</v>
+        <v>4.507109990710295</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07356545142617461</v>
+        <v>0.07356545142617463</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9374570094308147</v>
+        <v>0.9374570094308149</v>
       </c>
       <c r="H19" t="n">
-        <v>8.334845047484887</v>
+        <v>8.334845047484889</v>
       </c>
       <c r="I19" t="n">
-        <v>28.19188897451942</v>
+        <v>28.19188897451943</v>
       </c>
       <c r="J19" t="n">
-        <v>66.2782105667586</v>
+        <v>66.27821056675862</v>
       </c>
       <c r="K19" t="n">
         <v>108.9154598229619</v>
@@ -32414,19 +32414,19 @@
         <v>113.3811641224323</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.49924103515669</v>
+        <v>78.4992410351567</v>
       </c>
       <c r="R19" t="n">
-        <v>42.15147607858917</v>
+        <v>42.15147607858918</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33731897344428</v>
+        <v>16.33731897344429</v>
       </c>
       <c r="T19" t="n">
-        <v>4.005498131204389</v>
+        <v>4.00549813120439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05113401869622632</v>
+        <v>0.05113401869622633</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34365,13 +34365,13 @@
         <v>21.40318419252016</v>
       </c>
       <c r="I44" t="n">
-        <v>80.57085400533472</v>
+        <v>80.5708540053347</v>
       </c>
       <c r="J44" t="n">
         <v>177.3776154629473</v>
       </c>
       <c r="K44" t="n">
-        <v>265.8430651755683</v>
+        <v>265.8430651755682</v>
       </c>
       <c r="L44" t="n">
         <v>329.8018298021362</v>
@@ -34380,16 +34380,16 @@
         <v>366.9680816643337</v>
       </c>
       <c r="N44" t="n">
-        <v>372.9060088789802</v>
+        <v>372.9060088789801</v>
       </c>
       <c r="O44" t="n">
-        <v>352.1245698149624</v>
+        <v>352.1245698149623</v>
       </c>
       <c r="P44" t="n">
-        <v>300.5301736472249</v>
+        <v>300.5301736472248</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.6856445228871</v>
+        <v>225.6856445228866</v>
       </c>
       <c r="R44" t="n">
         <v>131.2796552211298</v>
@@ -34398,7 +34398,7 @@
         <v>47.62358694368886</v>
       </c>
       <c r="T44" t="n">
-        <v>9.148535462248947</v>
+        <v>9.148535462248946</v>
       </c>
       <c r="U44" t="n">
         <v>0.1671919673283644</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.118194861677854</v>
+        <v>1.118194861677853</v>
       </c>
       <c r="H45" t="n">
         <v>10.79940826936243</v>
       </c>
       <c r="I45" t="n">
-        <v>38.49925291303137</v>
+        <v>38.49925291303136</v>
       </c>
       <c r="J45" t="n">
         <v>105.6448926114151</v>
@@ -34453,13 +34453,13 @@
         <v>180.5639483438313</v>
       </c>
       <c r="L45" t="n">
-        <v>242.7905115235182</v>
+        <v>242.7905115235181</v>
       </c>
       <c r="M45" t="n">
         <v>283.3250752593403</v>
       </c>
       <c r="N45" t="n">
-        <v>290.8238469413818</v>
+        <v>290.8238469413817</v>
       </c>
       <c r="O45" t="n">
         <v>266.0470029010461</v>
@@ -34468,19 +34468,19 @@
         <v>213.5261749461859</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.7365932204924</v>
+        <v>142.7365932204923</v>
       </c>
       <c r="R45" t="n">
-        <v>69.42616869259518</v>
+        <v>69.42616869259517</v>
       </c>
       <c r="S45" t="n">
         <v>20.76997911932327</v>
       </c>
       <c r="T45" t="n">
-        <v>4.507109990710294</v>
+        <v>4.507109990710293</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07356545142617461</v>
+        <v>0.07356545142617459</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9374570094308147</v>
+        <v>0.9374570094308146</v>
       </c>
       <c r="H46" t="n">
-        <v>8.334845047484887</v>
+        <v>8.334845047484885</v>
       </c>
       <c r="I46" t="n">
-        <v>28.19188897451942</v>
+        <v>28.19188897451941</v>
       </c>
       <c r="J46" t="n">
-        <v>66.2782105667586</v>
+        <v>66.27821056675859</v>
       </c>
       <c r="K46" t="n">
         <v>108.9154598229619</v>
       </c>
       <c r="L46" t="n">
-        <v>139.3742902930141</v>
+        <v>139.374290293014</v>
       </c>
       <c r="M46" t="n">
-        <v>146.9506473965049</v>
+        <v>146.9506473965048</v>
       </c>
       <c r="N46" t="n">
-        <v>143.4564894522629</v>
+        <v>143.4564894522628</v>
       </c>
       <c r="O46" t="n">
         <v>132.505287114821</v>
@@ -34547,19 +34547,19 @@
         <v>113.3811641224323</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.49924103515669</v>
+        <v>78.49924103515667</v>
       </c>
       <c r="R46" t="n">
-        <v>42.15147607858917</v>
+        <v>42.15147607858916</v>
       </c>
       <c r="S46" t="n">
         <v>16.33731897344428</v>
       </c>
       <c r="T46" t="n">
-        <v>4.005498131204389</v>
+        <v>4.005498131204388</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05113401869622632</v>
+        <v>0.0511340186962263</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>59.69777752060125</v>
+        <v>59.69777752060128</v>
       </c>
       <c r="K11" t="n">
-        <v>122.7846619963309</v>
+        <v>122.784661996331</v>
       </c>
       <c r="L11" t="n">
-        <v>176.5536600716445</v>
+        <v>176.5536600716446</v>
       </c>
       <c r="M11" t="n">
         <v>217.2430300666065</v>
       </c>
       <c r="N11" t="n">
-        <v>223.7875175411961</v>
+        <v>223.7875175411962</v>
       </c>
       <c r="O11" t="n">
-        <v>202.560732390866</v>
+        <v>202.5607323908661</v>
       </c>
       <c r="P11" t="n">
-        <v>150.2287264062997</v>
+        <v>150.2287264062998</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.18694610449447</v>
+        <v>81.18694610449452</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>196.6571968984115</v>
+        <v>23.2004352780818</v>
       </c>
       <c r="K12" t="n">
-        <v>90.96701301049795</v>
+        <v>90.96701301049801</v>
       </c>
       <c r="L12" t="n">
-        <v>152.7301646665999</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="M12" t="n">
-        <v>190.9379532100284</v>
+        <v>190.9379532100285</v>
       </c>
       <c r="N12" t="n">
-        <v>205.4517340872151</v>
+        <v>205.4517340872152</v>
       </c>
       <c r="O12" t="n">
         <v>173.3594440121573</v>
@@ -35509,10 +35509,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.74844006457836</v>
+        <v>66.27653431654458</v>
       </c>
       <c r="R12" t="n">
-        <v>45.74829602167908</v>
+        <v>45.7482960216791</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.20372309459953</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K13" t="n">
-        <v>120.1549110356071</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L13" t="n">
-        <v>51.69925071020918</v>
+        <v>305.1597851150341</v>
       </c>
       <c r="M13" t="n">
-        <v>311.6588320349639</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="N13" t="n">
-        <v>311.6588320349639</v>
+        <v>68.73209620128404</v>
       </c>
       <c r="O13" t="n">
-        <v>296.8535366518998</v>
+        <v>296.8535366518999</v>
       </c>
       <c r="P13" t="n">
-        <v>23.85796149048637</v>
+        <v>23.8579614904864</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.95600504530917</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.69777752060125</v>
+        <v>59.69777752060128</v>
       </c>
       <c r="K14" t="n">
-        <v>122.7846619963309</v>
+        <v>122.784661996331</v>
       </c>
       <c r="L14" t="n">
-        <v>176.5536600716445</v>
+        <v>176.5536600716446</v>
       </c>
       <c r="M14" t="n">
         <v>217.2430300666065</v>
       </c>
       <c r="N14" t="n">
-        <v>223.7875175411961</v>
+        <v>223.7875175411962</v>
       </c>
       <c r="O14" t="n">
-        <v>202.560732390866</v>
+        <v>202.5607323908661</v>
       </c>
       <c r="P14" t="n">
-        <v>150.2287264062997</v>
+        <v>150.2287264062998</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.18694610449447</v>
+        <v>81.18694610449452</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>196.6571968984129</v>
+        <v>23.2004352780818</v>
       </c>
       <c r="K15" t="n">
-        <v>90.96701301049795</v>
+        <v>90.96701301049801</v>
       </c>
       <c r="L15" t="n">
-        <v>152.7301646665999</v>
+        <v>152.7301646666</v>
       </c>
       <c r="M15" t="n">
-        <v>190.9379532100284</v>
+        <v>190.9379532100285</v>
       </c>
       <c r="N15" t="n">
-        <v>205.4517340872151</v>
+        <v>205.4517340872152</v>
       </c>
       <c r="O15" t="n">
         <v>173.3594440121573</v>
@@ -35746,10 +35746,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.74844006457836</v>
+        <v>270.9534977065875</v>
       </c>
       <c r="R15" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.20372309459953</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K16" t="n">
         <v>191.5771175097719</v>
@@ -35813,16 +35813,16 @@
         <v>305.1597851150341</v>
       </c>
       <c r="M16" t="n">
-        <v>311.6588320349642</v>
+        <v>56.64888783056163</v>
       </c>
       <c r="N16" t="n">
-        <v>60.4608855498613</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="O16" t="n">
-        <v>296.8535366518998</v>
+        <v>98.32650625271779</v>
       </c>
       <c r="P16" t="n">
-        <v>32.12917214190949</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>59.69777752060125</v>
+        <v>59.69777752060128</v>
       </c>
       <c r="K17" t="n">
-        <v>122.7846619963309</v>
+        <v>122.784661996331</v>
       </c>
       <c r="L17" t="n">
-        <v>176.5536600716445</v>
+        <v>176.5536600716446</v>
       </c>
       <c r="M17" t="n">
         <v>217.2430300666065</v>
       </c>
       <c r="N17" t="n">
-        <v>223.7875175411961</v>
+        <v>223.7875175411962</v>
       </c>
       <c r="O17" t="n">
-        <v>202.560732390866</v>
+        <v>202.5607323908661</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2287264062997</v>
+        <v>150.2287264062998</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.18694610449447</v>
+        <v>81.18694610449452</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>219.9024504091195</v>
+        <v>23.2004352780818</v>
       </c>
       <c r="K18" t="n">
-        <v>90.96701301049795</v>
+        <v>90.96701301049801</v>
       </c>
       <c r="L18" t="n">
-        <v>152.7301646665999</v>
+        <v>152.7301646666</v>
       </c>
       <c r="M18" t="n">
-        <v>190.9379532100284</v>
+        <v>190.9379532100285</v>
       </c>
       <c r="N18" t="n">
-        <v>205.4517340872151</v>
+        <v>205.4517340872152</v>
       </c>
       <c r="O18" t="n">
         <v>173.3594440121573</v>
       </c>
       <c r="P18" t="n">
-        <v>126.4428101268713</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.74844006457836</v>
+        <v>85.73747579849518</v>
       </c>
       <c r="R18" t="n">
-        <v>22.50304251097238</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K19" t="n">
-        <v>191.5771175097719</v>
+        <v>25.05684201211395</v>
       </c>
       <c r="L19" t="n">
-        <v>51.69925071020918</v>
+        <v>51.69925071020921</v>
       </c>
       <c r="M19" t="n">
-        <v>311.6588320349642</v>
+        <v>278.1026673338627</v>
       </c>
       <c r="N19" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="O19" t="n">
-        <v>51.02481450243101</v>
+        <v>296.8535366518999</v>
       </c>
       <c r="P19" t="n">
         <v>234.4682002603905</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.95600504530917</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>196.6571968984124</v>
+        <v>23.20043527808177</v>
       </c>
       <c r="K21" t="n">
         <v>90.96701301049795</v>
@@ -36220,10 +36220,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.74844006457836</v>
+        <v>270.9534977065878</v>
       </c>
       <c r="R21" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>191.5771175097719</v>
       </c>
       <c r="L22" t="n">
-        <v>51.69925071020918</v>
+        <v>234.6220437668214</v>
       </c>
       <c r="M22" t="n">
         <v>311.6588320349641</v>
@@ -36296,7 +36296,7 @@
         <v>42.50853712112321</v>
       </c>
       <c r="P22" t="n">
-        <v>206.7807545470988</v>
+        <v>23.85796149048637</v>
       </c>
       <c r="Q22" t="n">
         <v>81.95600504530917</v>
@@ -36439,10 +36439,10 @@
         <v>219.9024504091195</v>
       </c>
       <c r="K24" t="n">
-        <v>90.96701301049795</v>
+        <v>113.4700555214702</v>
       </c>
       <c r="L24" t="n">
-        <v>175.2332071775718</v>
+        <v>152.7301646665999</v>
       </c>
       <c r="M24" t="n">
         <v>190.9379532100284</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>36.20372309459953</v>
       </c>
       <c r="K25" t="n">
         <v>191.5771175097719</v>
       </c>
       <c r="L25" t="n">
-        <v>51.69925071020918</v>
+        <v>234.6220437668216</v>
       </c>
       <c r="M25" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="N25" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="O25" t="n">
-        <v>51.02481450243077</v>
+        <v>42.50853712112321</v>
       </c>
       <c r="P25" t="n">
-        <v>234.4682002603905</v>
+        <v>23.85796149048637</v>
       </c>
       <c r="Q25" t="n">
         <v>81.95600504530917</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>36.20372309459953</v>
       </c>
       <c r="K28" t="n">
-        <v>156.358634130207</v>
+        <v>163.8896717964799</v>
       </c>
       <c r="L28" t="n">
         <v>51.69925071020918</v>
@@ -36767,10 +36767,10 @@
         <v>311.6588320349641</v>
       </c>
       <c r="O28" t="n">
-        <v>296.8535366518998</v>
+        <v>42.50853712112321</v>
       </c>
       <c r="P28" t="n">
-        <v>23.85796149048637</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q28" t="n">
         <v>81.95600504530917</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>75.93631807347657</v>
+        <v>219.9024504091195</v>
       </c>
       <c r="K30" t="n">
         <v>90.96701301049795</v>
@@ -36919,7 +36919,7 @@
         <v>152.7301646665999</v>
       </c>
       <c r="M30" t="n">
-        <v>311.6588320349641</v>
+        <v>190.9379532100284</v>
       </c>
       <c r="N30" t="n">
         <v>205.4517340872151</v>
@@ -36931,10 +36931,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.74844006457836</v>
+        <v>74.25148257554997</v>
       </c>
       <c r="R30" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.918634135211193</v>
+        <v>36.20372309459953</v>
       </c>
       <c r="K31" t="n">
-        <v>191.5771175097719</v>
+        <v>25.05684201211392</v>
       </c>
       <c r="L31" t="n">
-        <v>305.1597851150341</v>
+        <v>51.69925071020918</v>
       </c>
       <c r="M31" t="n">
-        <v>56.64888783056161</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N31" t="n">
-        <v>60.4608855498613</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="O31" t="n">
         <v>296.8535366518998</v>
       </c>
       <c r="P31" t="n">
-        <v>234.4682002603905</v>
+        <v>200.9120355592889</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.95600504530917</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>196.6571968984122</v>
+        <v>23.20043527808177</v>
       </c>
       <c r="K33" t="n">
         <v>90.96701301049795</v>
@@ -37168,10 +37168,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.74844006457836</v>
+        <v>270.9534977065878</v>
       </c>
       <c r="R33" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>36.20372309459953</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>191.5771175097719</v>
+        <v>25.05684201211392</v>
       </c>
       <c r="L34" t="n">
         <v>305.1597851150341</v>
       </c>
       <c r="M34" t="n">
-        <v>56.64888783056161</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N34" t="n">
-        <v>113.1318016357821</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="O34" t="n">
-        <v>296.8535366518998</v>
+        <v>46.04056064057293</v>
       </c>
       <c r="P34" t="n">
         <v>234.4682002603905</v>
@@ -37405,10 +37405,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.74844006457836</v>
+        <v>74.25148257554997</v>
       </c>
       <c r="R36" t="n">
-        <v>22.50304251097169</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>36.20372309459953</v>
       </c>
       <c r="K37" t="n">
         <v>25.05684201211392</v>
       </c>
       <c r="L37" t="n">
-        <v>264.9570478736113</v>
+        <v>51.69925071020918</v>
       </c>
       <c r="M37" t="n">
         <v>311.6588320349641</v>
@@ -37481,7 +37481,7 @@
         <v>296.8535366518998</v>
       </c>
       <c r="P37" t="n">
-        <v>23.85796149048637</v>
+        <v>200.9120355592889</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>173.3594440121573</v>
       </c>
       <c r="P39" t="n">
-        <v>148.9458526378434</v>
+        <v>126.4428101268713</v>
       </c>
       <c r="Q39" t="n">
         <v>51.74844006457836</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.50304251097169</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,13 +37706,13 @@
         <v>25.05684201211392</v>
       </c>
       <c r="L40" t="n">
-        <v>228.753324779012</v>
+        <v>146.7973197337027</v>
       </c>
       <c r="M40" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N40" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="O40" t="n">
         <v>296.8535366518998</v>
@@ -37721,7 +37721,7 @@
         <v>23.85796149048637</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>81.95600504530917</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q42" t="n">
-        <v>225.2052016849092</v>
+        <v>270.9534977065883</v>
       </c>
       <c r="R42" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>36.20372309459953</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>191.5771175097719</v>
       </c>
       <c r="L43" t="n">
-        <v>51.69925071020918</v>
+        <v>305.1597851150341</v>
       </c>
       <c r="M43" t="n">
-        <v>311.6588320349642</v>
+        <v>56.64888783056161</v>
       </c>
       <c r="N43" t="n">
         <v>311.6588320349642</v>
@@ -37955,10 +37955,10 @@
         <v>296.8535366518998</v>
       </c>
       <c r="P43" t="n">
-        <v>34.39176006163117</v>
+        <v>23.85796149048637</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>48.28693146532209</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>59.69777752060125</v>
+        <v>59.69777752060119</v>
       </c>
       <c r="K44" t="n">
-        <v>122.7846619963309</v>
+        <v>122.7846619963308</v>
       </c>
       <c r="L44" t="n">
         <v>176.5536600716445</v>
       </c>
       <c r="M44" t="n">
-        <v>217.2430300666065</v>
+        <v>217.2430300666064</v>
       </c>
       <c r="N44" t="n">
-        <v>223.7875175411961</v>
+        <v>223.787517541196</v>
       </c>
       <c r="O44" t="n">
         <v>202.560732390866</v>
       </c>
       <c r="P44" t="n">
-        <v>150.2287264062997</v>
+        <v>150.2287264062996</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.18694610449498</v>
+        <v>81.18694610449444</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>23.20043527808177</v>
+        <v>219.9024504091195</v>
       </c>
       <c r="K45" t="n">
-        <v>90.96701301049795</v>
+        <v>113.4700555214697</v>
       </c>
       <c r="L45" t="n">
         <v>152.7301646665999</v>
@@ -38107,19 +38107,19 @@
         <v>190.9379532100284</v>
       </c>
       <c r="N45" t="n">
-        <v>205.4517340872151</v>
+        <v>205.451734087215</v>
       </c>
       <c r="O45" t="n">
-        <v>173.3594440121573</v>
+        <v>173.3594440121572</v>
       </c>
       <c r="P45" t="n">
         <v>126.4428101268713</v>
       </c>
       <c r="Q45" t="n">
-        <v>225.2052016849092</v>
+        <v>51.74844006457833</v>
       </c>
       <c r="R45" t="n">
-        <v>45.74829602167908</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>36.20372309459953</v>
+        <v>36.20372309459952</v>
       </c>
       <c r="K46" t="n">
-        <v>120.1549110356076</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L46" t="n">
-        <v>51.69925071020918</v>
+        <v>51.69925071020916</v>
       </c>
       <c r="M46" t="n">
-        <v>311.6588320349642</v>
+        <v>311.658832034964</v>
       </c>
       <c r="N46" t="n">
-        <v>311.6588320349642</v>
+        <v>60.46088554986127</v>
       </c>
       <c r="O46" t="n">
-        <v>296.8535366518998</v>
+        <v>266.0190378929339</v>
       </c>
       <c r="P46" t="n">
-        <v>23.85796149048637</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.95600504530917</v>
+        <v>81.95600504530915</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
